--- a/BackTest/2019-10-17 BackTest XMR.xlsx
+++ b/BackTest/2019-10-17 BackTest XMR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>450</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L12" t="n">
         <v>64560</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>450</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L13" t="n">
         <v>64535</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>450</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>64510</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>450</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L15" t="n">
         <v>64495</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>450</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>64480</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>450</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60</v>
+      </c>
       <c r="L17" t="n">
         <v>64470</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>550</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>64465</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>550</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>64455</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>550</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>64445</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>550</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>64440</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>700</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>64435</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>850</v>
       </c>
       <c r="K23" t="n">
-        <v>-52.94117647058824</v>
+        <v>-50</v>
       </c>
       <c r="L23" t="n">
         <v>64415</v>
@@ -1515,7 +1537,7 @@
         <v>950</v>
       </c>
       <c r="K25" t="n">
-        <v>-52.94117647058824</v>
+        <v>-60</v>
       </c>
       <c r="L25" t="n">
         <v>64360</v>
@@ -1564,7 +1586,7 @@
         <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>-55.55555555555556</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L26" t="n">
         <v>64325</v>
@@ -1613,7 +1635,7 @@
         <v>1000</v>
       </c>
       <c r="K27" t="n">
-        <v>-52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L27" t="n">
         <v>64290</v>
@@ -1662,7 +1684,7 @@
         <v>1500</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L28" t="n">
         <v>64295</v>
@@ -1711,7 +1733,7 @@
         <v>1550</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>64305</v>
@@ -1760,7 +1782,7 @@
         <v>1550</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>64315</v>
@@ -1809,7 +1831,7 @@
         <v>1650</v>
       </c>
       <c r="K31" t="n">
-        <v>11.11111111111111</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L31" t="n">
         <v>64335</v>
@@ -1860,7 +1882,7 @@
         <v>1800</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L32" t="n">
         <v>64385</v>
@@ -1911,7 +1933,7 @@
         <v>2200</v>
       </c>
       <c r="K33" t="n">
-        <v>2.857142857142857</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L33" t="n">
         <v>64410</v>
@@ -1962,7 +1984,7 @@
         <v>2450</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L34" t="n">
         <v>64465</v>
@@ -2013,7 +2035,7 @@
         <v>2800</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.127659574468085</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>64490</v>
@@ -2064,7 +2086,7 @@
         <v>2950</v>
       </c>
       <c r="K36" t="n">
-        <v>-8</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L36" t="n">
         <v>64505</v>
@@ -2115,7 +2137,7 @@
         <v>3500</v>
       </c>
       <c r="K37" t="n">
-        <v>11.47540983606557</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>64575</v>
@@ -2166,7 +2188,7 @@
         <v>3750</v>
       </c>
       <c r="K38" t="n">
-        <v>15.625</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L38" t="n">
         <v>64620</v>
@@ -2217,7 +2239,7 @@
         <v>4100</v>
       </c>
       <c r="K39" t="n">
-        <v>4.225352112676056</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L39" t="n">
         <v>64625</v>
@@ -2268,7 +2290,7 @@
         <v>4400</v>
       </c>
       <c r="K40" t="n">
-        <v>11.68831168831169</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L40" t="n">
         <v>64660</v>
@@ -2319,7 +2341,7 @@
         <v>4450</v>
       </c>
       <c r="K41" t="n">
-        <v>12.82051282051282</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L41" t="n">
         <v>64690</v>
@@ -2370,7 +2392,7 @@
         <v>4450</v>
       </c>
       <c r="K42" t="n">
-        <v>17.33333333333334</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L42" t="n">
         <v>64705</v>
@@ -2421,7 +2443,7 @@
         <v>4450</v>
       </c>
       <c r="K43" t="n">
-        <v>22.22222222222222</v>
+        <v>15</v>
       </c>
       <c r="L43" t="n">
         <v>64760</v>
@@ -2472,7 +2494,7 @@
         <v>4450</v>
       </c>
       <c r="K44" t="n">
-        <v>23.94366197183098</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L44" t="n">
         <v>64790</v>
@@ -2523,7 +2545,7 @@
         <v>4700</v>
       </c>
       <c r="K45" t="n">
-        <v>17.33333333333334</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>64830</v>
@@ -2574,7 +2596,7 @@
         <v>4750</v>
       </c>
       <c r="K46" t="n">
-        <v>17.33333333333334</v>
+        <v>-4</v>
       </c>
       <c r="L46" t="n">
         <v>64880</v>
@@ -2625,7 +2647,7 @@
         <v>4850</v>
       </c>
       <c r="K47" t="n">
-        <v>14.28571428571428</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L47" t="n">
         <v>64865</v>
@@ -2676,7 +2698,7 @@
         <v>4900</v>
       </c>
       <c r="K48" t="n">
-        <v>2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>64830</v>
@@ -2727,7 +2749,7 @@
         <v>4900</v>
       </c>
       <c r="K49" t="n">
-        <v>1.492537313432836</v>
+        <v>-60</v>
       </c>
       <c r="L49" t="n">
         <v>64830</v>
@@ -2778,7 +2800,7 @@
         <v>5000</v>
       </c>
       <c r="K50" t="n">
-        <v>4.347826086956522</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L50" t="n">
         <v>64810</v>
@@ -2829,7 +2851,7 @@
         <v>5000</v>
       </c>
       <c r="K51" t="n">
-        <v>1.492537313432836</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L51" t="n">
         <v>64785</v>
@@ -2880,7 +2902,7 @@
         <v>5050</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.538461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>64765</v>
@@ -2931,7 +2953,7 @@
         <v>5200</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L53" t="n">
         <v>64760</v>
@@ -2982,7 +3004,7 @@
         <v>5250</v>
       </c>
       <c r="K54" t="n">
-        <v>10.71428571428571</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L54" t="n">
         <v>64760</v>
@@ -3033,7 +3055,7 @@
         <v>5250</v>
       </c>
       <c r="K55" t="n">
-        <v>26.53061224489796</v>
+        <v>60</v>
       </c>
       <c r="L55" t="n">
         <v>64785</v>
@@ -3084,7 +3106,7 @@
         <v>5500</v>
       </c>
       <c r="K56" t="n">
-        <v>21.56862745098039</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L56" t="n">
         <v>64790</v>
@@ -3135,7 +3157,7 @@
         <v>5650</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.976744186046512</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>64790</v>
@@ -3186,7 +3208,7 @@
         <v>6200</v>
       </c>
       <c r="K58" t="n">
-        <v>6.122448979591836</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L58" t="n">
         <v>64840</v>
@@ -3237,7 +3259,7 @@
         <v>6200</v>
       </c>
       <c r="K59" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>64890</v>
@@ -3288,7 +3310,7 @@
         <v>6550</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.976744186046512</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L60" t="n">
         <v>64895</v>
@@ -3339,7 +3361,7 @@
         <v>6950</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L61" t="n">
         <v>64940</v>
@@ -3390,7 +3412,7 @@
         <v>6950</v>
       </c>
       <c r="K62" t="n">
-        <v>8</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>64980</v>
@@ -3492,7 +3514,7 @@
         <v>7450</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L64" t="n">
         <v>65015</v>
@@ -3543,7 +3565,7 @@
         <v>7650</v>
       </c>
       <c r="K65" t="n">
-        <v>11.86440677966102</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L65" t="n">
         <v>65025</v>
@@ -3594,7 +3616,7 @@
         <v>7700</v>
       </c>
       <c r="K66" t="n">
-        <v>11.86440677966102</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L66" t="n">
         <v>65055</v>
@@ -3645,7 +3667,7 @@
         <v>7750</v>
       </c>
       <c r="K67" t="n">
-        <v>17.24137931034483</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L67" t="n">
         <v>65105</v>
@@ -3696,7 +3718,7 @@
         <v>7800</v>
       </c>
       <c r="K68" t="n">
-        <v>13.79310344827586</v>
+        <v>-6.25</v>
       </c>
       <c r="L68" t="n">
         <v>65095</v>
@@ -3747,7 +3769,7 @@
         <v>8050</v>
       </c>
       <c r="K69" t="n">
-        <v>20.63492063492063</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>65110</v>
@@ -3798,7 +3820,7 @@
         <v>8050</v>
       </c>
       <c r="K70" t="n">
-        <v>18.0327868852459</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L70" t="n">
         <v>65160</v>
@@ -3849,7 +3871,7 @@
         <v>8050</v>
       </c>
       <c r="K71" t="n">
-        <v>18.0327868852459</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L71" t="n">
         <v>65170</v>
@@ -3900,7 +3922,7 @@
         <v>8050</v>
       </c>
       <c r="K72" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>65180</v>
@@ -3951,7 +3973,7 @@
         <v>8250</v>
       </c>
       <c r="K73" t="n">
-        <v>18.0327868852459</v>
+        <v>25</v>
       </c>
       <c r="L73" t="n">
         <v>65230</v>
@@ -4002,7 +4024,7 @@
         <v>8300</v>
       </c>
       <c r="K74" t="n">
-        <v>18.0327868852459</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L74" t="n">
         <v>65255</v>
@@ -4053,7 +4075,7 @@
         <v>8400</v>
       </c>
       <c r="K75" t="n">
-        <v>20.63492063492063</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L75" t="n">
         <v>65310</v>
@@ -4104,7 +4126,7 @@
         <v>8650</v>
       </c>
       <c r="K76" t="n">
-        <v>36.50793650793651</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L76" t="n">
         <v>65395</v>
@@ -4155,7 +4177,7 @@
         <v>8750</v>
       </c>
       <c r="K77" t="n">
-        <v>45.16129032258064</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>65485</v>
@@ -4206,7 +4228,7 @@
         <v>8750</v>
       </c>
       <c r="K78" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>65580</v>
@@ -4257,7 +4279,7 @@
         <v>9050</v>
       </c>
       <c r="K79" t="n">
-        <v>19.29824561403509</v>
+        <v>40</v>
       </c>
       <c r="L79" t="n">
         <v>65620</v>
@@ -4308,7 +4330,7 @@
         <v>9200</v>
       </c>
       <c r="K80" t="n">
-        <v>39.62264150943396</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L80" t="n">
         <v>65675</v>
@@ -4359,7 +4381,7 @@
         <v>9350</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L81" t="n">
         <v>65745</v>
@@ -4410,7 +4432,7 @@
         <v>9500</v>
       </c>
       <c r="K82" t="n">
-        <v>37.25490196078432</v>
+        <v>52</v>
       </c>
       <c r="L82" t="n">
         <v>65830</v>
@@ -4461,7 +4483,7 @@
         <v>9550</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L83" t="n">
         <v>65900</v>
@@ -4512,7 +4534,7 @@
         <v>9750</v>
       </c>
       <c r="K84" t="n">
-        <v>30.43478260869566</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L84" t="n">
         <v>65945</v>
@@ -4563,7 +4585,7 @@
         <v>9750</v>
       </c>
       <c r="K85" t="n">
-        <v>42.85714285714285</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L85" t="n">
         <v>65980</v>
@@ -4614,7 +4636,7 @@
         <v>9750</v>
       </c>
       <c r="K86" t="n">
-        <v>46.34146341463415</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>65990</v>
@@ -4665,7 +4687,7 @@
         <v>9950</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L87" t="n">
         <v>66010</v>
@@ -4716,7 +4738,7 @@
         <v>10150</v>
       </c>
       <c r="K88" t="n">
-        <v>57.44680851063831</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L88" t="n">
         <v>66050</v>
@@ -4767,7 +4789,7 @@
         <v>10150</v>
       </c>
       <c r="K89" t="n">
-        <v>52.38095238095239</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L89" t="n">
         <v>66120</v>
@@ -4818,7 +4840,7 @@
         <v>10250</v>
       </c>
       <c r="K90" t="n">
-        <v>54.54545454545454</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L90" t="n">
         <v>66185</v>
@@ -4869,7 +4891,7 @@
         <v>10300</v>
       </c>
       <c r="K91" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L91" t="n">
         <v>66240</v>
@@ -4971,7 +4993,7 @@
         <v>10650</v>
       </c>
       <c r="K93" t="n">
-        <v>58.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>66375</v>
@@ -5022,7 +5044,7 @@
         <v>11000</v>
       </c>
       <c r="K94" t="n">
-        <v>37.03703703703704</v>
+        <v>44</v>
       </c>
       <c r="L94" t="n">
         <v>66430</v>
@@ -5073,7 +5095,7 @@
         <v>11150</v>
       </c>
       <c r="K95" t="n">
-        <v>27.27272727272727</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>66470</v>
@@ -5124,7 +5146,7 @@
         <v>11600</v>
       </c>
       <c r="K96" t="n">
-        <v>1.694915254237288</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L96" t="n">
         <v>66465</v>
@@ -5175,7 +5197,7 @@
         <v>11700</v>
       </c>
       <c r="K97" t="n">
-        <v>1.694915254237288</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L97" t="n">
         <v>66450</v>
@@ -5226,7 +5248,7 @@
         <v>11750</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L98" t="n">
         <v>66410</v>
@@ -5277,7 +5299,7 @@
         <v>11750</v>
       </c>
       <c r="K99" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>66370</v>
@@ -5328,7 +5350,7 @@
         <v>11800</v>
       </c>
       <c r="K100" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>66325</v>
@@ -5379,7 +5401,7 @@
         <v>11800</v>
       </c>
       <c r="K101" t="n">
-        <v>2.040816326530612</v>
+        <v>-60</v>
       </c>
       <c r="L101" t="n">
         <v>66275</v>
@@ -5430,7 +5452,7 @@
         <v>12300</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L102" t="n">
         <v>66250</v>
@@ -5481,7 +5503,7 @@
         <v>12850</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.060606060606061</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L103" t="n">
         <v>66160</v>
@@ -5532,7 +5554,7 @@
         <v>13150</v>
       </c>
       <c r="K104" t="n">
-        <v>8.823529411764707</v>
+        <v>-5</v>
       </c>
       <c r="L104" t="n">
         <v>66135</v>
@@ -5583,7 +5605,7 @@
         <v>13250</v>
       </c>
       <c r="K105" t="n">
-        <v>11.42857142857143</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L105" t="n">
         <v>66135</v>
@@ -5634,7 +5656,7 @@
         <v>13400</v>
       </c>
       <c r="K106" t="n">
-        <v>6.849315068493151</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L106" t="n">
         <v>66165</v>
@@ -5685,7 +5707,7 @@
         <v>13500</v>
       </c>
       <c r="K107" t="n">
-        <v>4.225352112676056</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>66195</v>
@@ -5736,7 +5758,7 @@
         <v>13700</v>
       </c>
       <c r="K108" t="n">
-        <v>-7.042253521126761</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L108" t="n">
         <v>66210</v>
@@ -5787,7 +5809,7 @@
         <v>13800</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.58904109589041</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>66215</v>
@@ -5838,7 +5860,7 @@
         <v>14050</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L110" t="n">
         <v>66240</v>
@@ -5889,7 +5911,7 @@
         <v>14100</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L111" t="n">
         <v>66270</v>
@@ -5940,7 +5962,7 @@
         <v>14550</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L112" t="n">
         <v>66295</v>
@@ -5991,7 +6013,7 @@
         <v>14650</v>
       </c>
       <c r="K113" t="n">
-        <v>-5</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L113" t="n">
         <v>66365</v>
@@ -6042,7 +6064,7 @@
         <v>14700</v>
       </c>
       <c r="K114" t="n">
-        <v>5.405405405405405</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L114" t="n">
         <v>66410</v>
@@ -6093,7 +6115,7 @@
         <v>14850</v>
       </c>
       <c r="K115" t="n">
-        <v>13.51351351351351</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L115" t="n">
         <v>66460</v>
@@ -6144,7 +6166,7 @@
         <v>14850</v>
       </c>
       <c r="K116" t="n">
-        <v>29.23076923076923</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L116" t="n">
         <v>66525</v>
@@ -6195,7 +6217,7 @@
         <v>14850</v>
       </c>
       <c r="K117" t="n">
-        <v>26.98412698412698</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L117" t="n">
         <v>66580</v>
@@ -6246,7 +6268,7 @@
         <v>14950</v>
       </c>
       <c r="K118" t="n">
-        <v>31.25</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L118" t="n">
         <v>66665</v>
@@ -6297,7 +6319,7 @@
         <v>14950</v>
       </c>
       <c r="K119" t="n">
-        <v>31.25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L119" t="n">
         <v>66760</v>
@@ -6348,7 +6370,7 @@
         <v>14950</v>
       </c>
       <c r="K120" t="n">
-        <v>30.15873015873016</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L120" t="n">
         <v>66830</v>
@@ -6399,7 +6421,7 @@
         <v>14950</v>
       </c>
       <c r="K121" t="n">
-        <v>30.15873015873016</v>
+        <v>50</v>
       </c>
       <c r="L121" t="n">
         <v>66895</v>
@@ -6450,7 +6472,7 @@
         <v>15550</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.615384615384616</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>66855</v>
@@ -6501,7 +6523,7 @@
         <v>15600</v>
       </c>
       <c r="K123" t="n">
-        <v>12.72727272727273</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L123" t="n">
         <v>66820</v>
@@ -6552,7 +6574,7 @@
         <v>16000</v>
       </c>
       <c r="K124" t="n">
-        <v>-12.28070175438596</v>
+        <v>-82.60869565217391</v>
       </c>
       <c r="L124" t="n">
         <v>66740</v>
@@ -6603,7 +6625,7 @@
         <v>16050</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.85714285714286</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L125" t="n">
         <v>66640</v>
@@ -6654,7 +6676,7 @@
         <v>16050</v>
       </c>
       <c r="K126" t="n">
-        <v>-13.20754716981132</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L126" t="n">
         <v>66540</v>
@@ -6705,7 +6727,7 @@
         <v>16250</v>
       </c>
       <c r="K127" t="n">
-        <v>-23.63636363636364</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>66420</v>
@@ -6756,7 +6778,7 @@
         <v>16500</v>
       </c>
       <c r="K128" t="n">
-        <v>-7.142857142857142</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L128" t="n">
         <v>66315</v>
@@ -6807,7 +6829,7 @@
         <v>17150</v>
       </c>
       <c r="K129" t="n">
-        <v>16.41791044776119</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L129" t="n">
         <v>66275</v>
@@ -6858,7 +6880,7 @@
         <v>17550</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.857142857142857</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L130" t="n">
         <v>66195</v>
@@ -6909,7 +6931,7 @@
         <v>17550</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.347826086956522</v>
+        <v>-10</v>
       </c>
       <c r="L131" t="n">
         <v>66115</v>
@@ -6960,7 +6982,7 @@
         <v>17650</v>
       </c>
       <c r="K132" t="n">
-        <v>-22.58064516129032</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L132" t="n">
         <v>66085</v>
@@ -7011,7 +7033,7 @@
         <v>18300</v>
       </c>
       <c r="K133" t="n">
-        <v>1.36986301369863</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L133" t="n">
         <v>66125</v>
@@ -7062,7 +7084,7 @@
         <v>18300</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L134" t="n">
         <v>66205</v>
@@ -7113,7 +7135,7 @@
         <v>18350</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.714285714285714</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L135" t="n">
         <v>66285</v>
@@ -7164,7 +7186,7 @@
         <v>18350</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.714285714285714</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L136" t="n">
         <v>66365</v>
@@ -7215,7 +7237,7 @@
         <v>18800</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.45569620253164</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L137" t="n">
         <v>66420</v>
@@ -7266,7 +7288,7 @@
         <v>19200</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.235294117647058</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L138" t="n">
         <v>66490</v>
@@ -7317,7 +7339,7 @@
         <v>19600</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.12903225806452</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L139" t="n">
         <v>66455</v>
@@ -7368,7 +7390,7 @@
         <v>19650</v>
       </c>
       <c r="K140" t="n">
-        <v>-17.02127659574468</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>66455</v>
@@ -7419,7 +7441,7 @@
         <v>20200</v>
       </c>
       <c r="K141" t="n">
-        <v>-4.761904761904762</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="L141" t="n">
         <v>66510</v>
@@ -7470,7 +7492,7 @@
         <v>20700</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.912621359223301</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L142" t="n">
         <v>66525</v>
@@ -7521,7 +7543,7 @@
         <v>21200</v>
       </c>
       <c r="K143" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>66525</v>
@@ -7572,7 +7594,7 @@
         <v>21300</v>
       </c>
       <c r="K144" t="n">
-        <v>16.9811320754717</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L144" t="n">
         <v>66535</v>
@@ -7623,7 +7645,7 @@
         <v>21300</v>
       </c>
       <c r="K145" t="n">
-        <v>18.09523809523809</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L145" t="n">
         <v>66550</v>
@@ -7674,7 +7696,7 @@
         <v>21300</v>
       </c>
       <c r="K146" t="n">
-        <v>18.09523809523809</v>
+        <v>24</v>
       </c>
       <c r="L146" t="n">
         <v>66565</v>
@@ -7725,7 +7747,7 @@
         <v>21400</v>
       </c>
       <c r="K147" t="n">
-        <v>24.27184466019418</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L147" t="n">
         <v>66635</v>
@@ -7776,7 +7798,7 @@
         <v>21500</v>
       </c>
       <c r="K148" t="n">
-        <v>18</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L148" t="n">
         <v>66655</v>
@@ -7827,7 +7849,7 @@
         <v>21600</v>
       </c>
       <c r="K149" t="n">
-        <v>7.865168539325842</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L149" t="n">
         <v>66725</v>
@@ -7878,7 +7900,7 @@
         <v>22000</v>
       </c>
       <c r="K150" t="n">
-        <v>7.865168539325842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L150" t="n">
         <v>66760</v>
@@ -7929,7 +7951,7 @@
         <v>22350</v>
       </c>
       <c r="K151" t="n">
-        <v>14.58333333333333</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L151" t="n">
         <v>66775</v>
@@ -7980,7 +8002,7 @@
         <v>22350</v>
       </c>
       <c r="K152" t="n">
-        <v>17.02127659574468</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L152" t="n">
         <v>66840</v>
@@ -8031,7 +8053,7 @@
         <v>22350</v>
       </c>
       <c r="K153" t="n">
-        <v>3.703703703703703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L153" t="n">
         <v>66855</v>
@@ -8082,7 +8104,7 @@
         <v>22350</v>
       </c>
       <c r="K154" t="n">
-        <v>3.703703703703703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L154" t="n">
         <v>66860</v>
@@ -8133,7 +8155,7 @@
         <v>22350</v>
       </c>
       <c r="K155" t="n">
-        <v>5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L155" t="n">
         <v>66865</v>
@@ -8184,7 +8206,7 @@
         <v>22350</v>
       </c>
       <c r="K156" t="n">
-        <v>5</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L156" t="n">
         <v>66870</v>
@@ -8235,7 +8257,7 @@
         <v>22400</v>
       </c>
       <c r="K157" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>66860</v>
@@ -8286,7 +8308,7 @@
         <v>22500</v>
       </c>
       <c r="K158" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>66870</v>
@@ -8337,7 +8359,7 @@
         <v>22550</v>
       </c>
       <c r="K159" t="n">
-        <v>22.03389830508474</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L159" t="n">
         <v>66865</v>
@@ -8388,7 +8410,7 @@
         <v>22550</v>
       </c>
       <c r="K160" t="n">
-        <v>24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>66900</v>
@@ -8439,7 +8461,7 @@
         <v>22550</v>
       </c>
       <c r="K161" t="n">
-        <v>6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>66900</v>
@@ -8490,7 +8512,7 @@
         <v>22550</v>
       </c>
       <c r="K162" t="n">
-        <v>35.13513513513514</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>66900</v>
@@ -8541,7 +8563,7 @@
         <v>22600</v>
       </c>
       <c r="K163" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
         <v>66905</v>
@@ -8592,7 +8614,7 @@
         <v>22600</v>
       </c>
       <c r="K164" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>66910</v>
@@ -8643,7 +8665,7 @@
         <v>22600</v>
       </c>
       <c r="K165" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>66915</v>
@@ -8694,7 +8716,7 @@
         <v>22600</v>
       </c>
       <c r="K166" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
         <v>66920</v>
@@ -8796,7 +8818,7 @@
         <v>22650</v>
       </c>
       <c r="K168" t="n">
-        <v>13.04347826086956</v>
+        <v>100</v>
       </c>
       <c r="L168" t="n">
         <v>66935</v>
@@ -8847,7 +8869,7 @@
         <v>22850</v>
       </c>
       <c r="K169" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>66925</v>
@@ -8898,7 +8920,7 @@
         <v>22850</v>
       </c>
       <c r="K170" t="n">
-        <v>29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>66915</v>
@@ -8949,7 +8971,7 @@
         <v>23100</v>
       </c>
       <c r="K171" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L171" t="n">
         <v>66930</v>
@@ -9000,7 +9022,7 @@
         <v>23350</v>
       </c>
       <c r="K172" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>66920</v>
@@ -9051,7 +9073,7 @@
         <v>23600</v>
       </c>
       <c r="K173" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L173" t="n">
         <v>66930</v>
@@ -9102,7 +9124,7 @@
         <v>23600</v>
       </c>
       <c r="K174" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L174" t="n">
         <v>66940</v>
@@ -9153,7 +9175,7 @@
         <v>23600</v>
       </c>
       <c r="K175" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L175" t="n">
         <v>66950</v>
@@ -9204,7 +9226,7 @@
         <v>24150</v>
       </c>
       <c r="K176" t="n">
-        <v>38.88888888888889</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L176" t="n">
         <v>67015</v>
@@ -9255,7 +9277,7 @@
         <v>24200</v>
       </c>
       <c r="K177" t="n">
-        <v>38.88888888888889</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L177" t="n">
         <v>67075</v>
@@ -9306,7 +9328,7 @@
         <v>24300</v>
       </c>
       <c r="K178" t="n">
-        <v>38.88888888888889</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L178" t="n">
         <v>67140</v>
@@ -9357,7 +9379,7 @@
         <v>24300</v>
       </c>
       <c r="K179" t="n">
-        <v>42.85714285714285</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L179" t="n">
         <v>67225</v>
@@ -9408,7 +9430,7 @@
         <v>24450</v>
       </c>
       <c r="K180" t="n">
-        <v>47.36842105263158</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L180" t="n">
         <v>67325</v>
@@ -9459,7 +9481,7 @@
         <v>24450</v>
       </c>
       <c r="K181" t="n">
-        <v>47.36842105263158</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L181" t="n">
         <v>67400</v>
@@ -9510,7 +9532,7 @@
         <v>24650</v>
       </c>
       <c r="K182" t="n">
-        <v>52.38095238095239</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L182" t="n">
         <v>67520</v>
@@ -9561,7 +9583,7 @@
         <v>24950</v>
       </c>
       <c r="K183" t="n">
-        <v>57.44680851063831</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L183" t="n">
         <v>67645</v>
@@ -9612,7 +9634,7 @@
         <v>24950</v>
       </c>
       <c r="K184" t="n">
-        <v>57.44680851063831</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="L184" t="n">
         <v>67770</v>
@@ -9663,7 +9685,7 @@
         <v>25300</v>
       </c>
       <c r="K185" t="n">
-        <v>37.03703703703704</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L185" t="n">
         <v>67860</v>
@@ -9714,7 +9736,7 @@
         <v>25350</v>
       </c>
       <c r="K186" t="n">
-        <v>34.54545454545455</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L186" t="n">
         <v>67890</v>
@@ -9765,7 +9787,7 @@
         <v>25350</v>
       </c>
       <c r="K187" t="n">
-        <v>34.54545454545455</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L187" t="n">
         <v>67925</v>
@@ -9816,7 +9838,7 @@
         <v>25550</v>
       </c>
       <c r="K188" t="n">
-        <v>24.13793103448276</v>
+        <v>4</v>
       </c>
       <c r="L188" t="n">
         <v>67930</v>
@@ -9867,7 +9889,7 @@
         <v>25550</v>
       </c>
       <c r="K189" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L189" t="n">
         <v>67935</v>
@@ -9918,7 +9940,7 @@
         <v>25600</v>
       </c>
       <c r="K190" t="n">
-        <v>30.90909090909091</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L190" t="n">
         <v>67920</v>
@@ -9969,7 +9991,7 @@
         <v>25750</v>
       </c>
       <c r="K191" t="n">
-        <v>28.30188679245283</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L191" t="n">
         <v>67920</v>
@@ -10020,7 +10042,7 @@
         <v>25900</v>
       </c>
       <c r="K192" t="n">
-        <v>33.33333333333333</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L192" t="n">
         <v>67885</v>
@@ -10071,7 +10093,7 @@
         <v>25900</v>
       </c>
       <c r="K193" t="n">
-        <v>26.08695652173913</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L193" t="n">
         <v>67820</v>
@@ -10122,7 +10144,7 @@
         <v>26000</v>
       </c>
       <c r="K194" t="n">
-        <v>20.83333333333334</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L194" t="n">
         <v>67745</v>
@@ -10173,7 +10195,7 @@
         <v>26000</v>
       </c>
       <c r="K195" t="n">
-        <v>20.83333333333334</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L195" t="n">
         <v>67705</v>
@@ -10224,7 +10246,7 @@
         <v>26100</v>
       </c>
       <c r="K196" t="n">
-        <v>2.564102564102564</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>67680</v>
@@ -10275,7 +10297,7 @@
         <v>26150</v>
       </c>
       <c r="K197" t="n">
-        <v>2.564102564102564</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L197" t="n">
         <v>67650</v>
@@ -10326,7 +10348,7 @@
         <v>26250</v>
       </c>
       <c r="K198" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>67650</v>
@@ -10377,7 +10399,7 @@
         <v>26300</v>
       </c>
       <c r="K199" t="n">
-        <v>5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>67655</v>
@@ -10428,7 +10450,7 @@
         <v>26300</v>
       </c>
       <c r="K200" t="n">
-        <v>-2.702702702702703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L200" t="n">
         <v>67665</v>
@@ -10479,7 +10501,7 @@
         <v>26300</v>
       </c>
       <c r="K201" t="n">
-        <v>-2.702702702702703</v>
+        <v>25</v>
       </c>
       <c r="L201" t="n">
         <v>67660</v>
@@ -10530,7 +10552,7 @@
         <v>26300</v>
       </c>
       <c r="K202" t="n">
-        <v>-15.15151515151515</v>
+        <v>25</v>
       </c>
       <c r="L202" t="n">
         <v>67670</v>
@@ -10581,7 +10603,7 @@
         <v>26500</v>
       </c>
       <c r="K203" t="n">
-        <v>-48.38709677419355</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>67660</v>
@@ -10632,7 +10654,7 @@
         <v>26550</v>
       </c>
       <c r="K204" t="n">
-        <v>-50</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L204" t="n">
         <v>67655</v>
@@ -10683,7 +10705,7 @@
         <v>26950</v>
       </c>
       <c r="K205" t="n">
-        <v>-51.51515151515152</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L205" t="n">
         <v>67610</v>
@@ -10734,7 +10756,7 @@
         <v>27300</v>
       </c>
       <c r="K206" t="n">
-        <v>-23.07692307692308</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L206" t="n">
         <v>67590</v>
@@ -10785,7 +10807,7 @@
         <v>27350</v>
       </c>
       <c r="K207" t="n">
-        <v>-20</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L207" t="n">
         <v>67580</v>
@@ -10836,7 +10858,7 @@
         <v>27350</v>
       </c>
       <c r="K208" t="n">
-        <v>-11.11111111111111</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L208" t="n">
         <v>67560</v>
@@ -10887,7 +10909,7 @@
         <v>28200</v>
       </c>
       <c r="K209" t="n">
-        <v>-39.62264150943396</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L209" t="n">
         <v>67450</v>
@@ -10938,7 +10960,7 @@
         <v>28250</v>
       </c>
       <c r="K210" t="n">
-        <v>-35.84905660377358</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L210" t="n">
         <v>67345</v>
@@ -10989,7 +11011,7 @@
         <v>28300</v>
       </c>
       <c r="K211" t="n">
-        <v>-45.09803921568628</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="L211" t="n">
         <v>67235</v>
@@ -11040,7 +11062,7 @@
         <v>28350</v>
       </c>
       <c r="K212" t="n">
-        <v>-42.85714285714285</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L212" t="n">
         <v>67120</v>
@@ -11091,7 +11113,7 @@
         <v>28350</v>
       </c>
       <c r="K213" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L213" t="n">
         <v>67025</v>
@@ -11142,7 +11164,7 @@
         <v>28400</v>
       </c>
       <c r="K214" t="n">
-        <v>-41.66666666666667</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L214" t="n">
         <v>66930</v>
@@ -11193,7 +11215,7 @@
         <v>28400</v>
       </c>
       <c r="K215" t="n">
-        <v>-41.66666666666667</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L215" t="n">
         <v>66875</v>
@@ -11244,7 +11266,7 @@
         <v>28900</v>
       </c>
       <c r="K216" t="n">
-        <v>-21.42857142857143</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L216" t="n">
         <v>66835</v>
@@ -11295,7 +11317,7 @@
         <v>29300</v>
       </c>
       <c r="K217" t="n">
-        <v>-30.15873015873016</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L217" t="n">
         <v>66750</v>
@@ -11346,7 +11368,7 @@
         <v>29350</v>
       </c>
       <c r="K218" t="n">
-        <v>-32.25806451612903</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L218" t="n">
         <v>66670</v>
@@ -11397,7 +11419,7 @@
         <v>30300</v>
       </c>
       <c r="K219" t="n">
-        <v>-2.5</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L219" t="n">
         <v>66770</v>
@@ -11448,7 +11470,7 @@
         <v>30350</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.703703703703703</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L220" t="n">
         <v>66860</v>
@@ -11499,7 +11521,7 @@
         <v>30350</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L221" t="n">
         <v>66955</v>
@@ -11550,7 +11572,7 @@
         <v>30450</v>
       </c>
       <c r="K222" t="n">
-        <v>-1.204819277108434</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L222" t="n">
         <v>67065</v>
@@ -11601,7 +11623,7 @@
         <v>31250</v>
       </c>
       <c r="K223" t="n">
-        <v>-13.68421052631579</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="L223" t="n">
         <v>67095</v>
@@ -11652,7 +11674,7 @@
         <v>31650</v>
       </c>
       <c r="K224" t="n">
-        <v>-3.92156862745098</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L224" t="n">
         <v>67170</v>
@@ -11703,7 +11725,7 @@
         <v>31800</v>
       </c>
       <c r="K225" t="n">
-        <v>1.030927835051546</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L225" t="n">
         <v>67230</v>
@@ -11754,7 +11776,7 @@
         <v>31850</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.494505494505495</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L226" t="n">
         <v>67245</v>
@@ -11805,7 +11827,7 @@
         <v>31950</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.347826086956522</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L227" t="n">
         <v>67310</v>
@@ -11856,7 +11878,7 @@
         <v>32100</v>
       </c>
       <c r="K228" t="n">
-        <v>-1.052631578947368</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L228" t="n">
         <v>67385</v>
@@ -11907,7 +11929,7 @@
         <v>32400</v>
       </c>
       <c r="K229" t="n">
-        <v>11.9047619047619</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L229" t="n">
         <v>67335</v>
@@ -11958,7 +11980,7 @@
         <v>32950</v>
       </c>
       <c r="K230" t="n">
-        <v>21.27659574468085</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L230" t="n">
         <v>67345</v>
@@ -12009,7 +12031,7 @@
         <v>33000</v>
       </c>
       <c r="K231" t="n">
-        <v>21.27659574468085</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L231" t="n">
         <v>67350</v>
@@ -12060,7 +12082,7 @@
         <v>33000</v>
       </c>
       <c r="K232" t="n">
-        <v>22.58064516129032</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L232" t="n">
         <v>67345</v>
@@ -12111,7 +12133,7 @@
         <v>33300</v>
       </c>
       <c r="K233" t="n">
-        <v>15.15151515151515</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L233" t="n">
         <v>67390</v>
@@ -12162,7 +12184,7 @@
         <v>33300</v>
       </c>
       <c r="K234" t="n">
-        <v>16.3265306122449</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>67395</v>
@@ -12213,7 +12235,7 @@
         <v>33500</v>
       </c>
       <c r="K235" t="n">
-        <v>19.6078431372549</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L235" t="n">
         <v>67435</v>
@@ -12264,7 +12286,7 @@
         <v>33550</v>
       </c>
       <c r="K236" t="n">
-        <v>11.82795698924731</v>
+        <v>18.75</v>
       </c>
       <c r="L236" t="n">
         <v>67475</v>
@@ -12315,7 +12337,7 @@
         <v>33650</v>
       </c>
       <c r="K237" t="n">
-        <v>19.54022988505747</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L237" t="n">
         <v>67495</v>
@@ -12366,7 +12388,7 @@
         <v>33750</v>
       </c>
       <c r="K238" t="n">
-        <v>15.90909090909091</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L238" t="n">
         <v>67490</v>
@@ -12417,7 +12439,7 @@
         <v>34050</v>
       </c>
       <c r="K239" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>67545</v>
@@ -12468,7 +12490,7 @@
         <v>34100</v>
       </c>
       <c r="K240" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>67540</v>
@@ -12519,7 +12541,7 @@
         <v>34550</v>
       </c>
       <c r="K241" t="n">
-        <v>11.9047619047619</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L241" t="n">
         <v>67585</v>
@@ -12570,7 +12592,7 @@
         <v>34650</v>
       </c>
       <c r="K242" t="n">
-        <v>11.9047619047619</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L242" t="n">
         <v>67640</v>
@@ -12621,7 +12643,7 @@
         <v>34650</v>
       </c>
       <c r="K243" t="n">
-        <v>38.23529411764706</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L243" t="n">
         <v>67725</v>
@@ -12672,7 +12694,7 @@
         <v>35350</v>
       </c>
       <c r="K244" t="n">
-        <v>5.405405405405405</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L244" t="n">
         <v>67740</v>
@@ -12723,7 +12745,7 @@
         <v>35800</v>
       </c>
       <c r="K245" t="n">
-        <v>20</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L245" t="n">
         <v>67780</v>
@@ -12774,7 +12796,7 @@
         <v>35950</v>
       </c>
       <c r="K246" t="n">
-        <v>14.63414634146341</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L246" t="n">
         <v>67800</v>
@@ -12825,7 +12847,7 @@
         <v>36100</v>
       </c>
       <c r="K247" t="n">
-        <v>15.66265060240964</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L247" t="n">
         <v>67845</v>
@@ -12876,7 +12898,7 @@
         <v>36200</v>
       </c>
       <c r="K248" t="n">
-        <v>9.75609756097561</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L248" t="n">
         <v>67890</v>
@@ -12927,7 +12949,7 @@
         <v>36450</v>
       </c>
       <c r="K249" t="n">
-        <v>23.45679012345679</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L249" t="n">
         <v>67930</v>
@@ -12978,7 +13000,7 @@
         <v>36500</v>
       </c>
       <c r="K250" t="n">
-        <v>12.67605633802817</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L250" t="n">
         <v>67980</v>
@@ -13029,7 +13051,7 @@
         <v>36500</v>
       </c>
       <c r="K251" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L251" t="n">
         <v>67985</v>
@@ -13080,7 +13102,7 @@
         <v>36500</v>
       </c>
       <c r="K252" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L252" t="n">
         <v>67980</v>
@@ -13131,7 +13153,7 @@
         <v>36500</v>
       </c>
       <c r="K253" t="n">
-        <v>25</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L253" t="n">
         <v>67975</v>
@@ -13182,7 +13204,7 @@
         <v>36500</v>
       </c>
       <c r="K254" t="n">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L254" t="n">
         <v>68040</v>
@@ -13233,7 +13255,7 @@
         <v>36850</v>
       </c>
       <c r="K255" t="n">
-        <v>7.462686567164178</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>68025</v>
@@ -13284,7 +13306,7 @@
         <v>37250</v>
       </c>
       <c r="K256" t="n">
-        <v>16.21621621621622</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L256" t="n">
         <v>68065</v>
@@ -13335,7 +13357,7 @@
         <v>37450</v>
       </c>
       <c r="K257" t="n">
-        <v>23.68421052631579</v>
+        <v>44</v>
       </c>
       <c r="L257" t="n">
         <v>68110</v>
@@ -13386,7 +13408,7 @@
         <v>37450</v>
       </c>
       <c r="K258" t="n">
-        <v>27.02702702702703</v>
+        <v>30</v>
       </c>
       <c r="L258" t="n">
         <v>68165</v>
@@ -13437,7 +13459,7 @@
         <v>37700</v>
       </c>
       <c r="K259" t="n">
-        <v>26.02739726027397</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L259" t="n">
         <v>68220</v>
@@ -13488,7 +13510,7 @@
         <v>37700</v>
       </c>
       <c r="K260" t="n">
-        <v>27.77777777777778</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L260" t="n">
         <v>68270</v>
@@ -13539,7 +13561,7 @@
         <v>37700</v>
       </c>
       <c r="K261" t="n">
-        <v>17.46031746031746</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L261" t="n">
         <v>68320</v>
@@ -13590,7 +13612,7 @@
         <v>38350</v>
       </c>
       <c r="K262" t="n">
-        <v>-5.405405405405405</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L262" t="n">
         <v>68305</v>
@@ -13641,7 +13663,7 @@
         <v>38350</v>
       </c>
       <c r="K263" t="n">
-        <v>-5.405405405405405</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L263" t="n">
         <v>68290</v>
@@ -13692,7 +13714,7 @@
         <v>38400</v>
       </c>
       <c r="K264" t="n">
-        <v>18.0327868852459</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L264" t="n">
         <v>68280</v>
@@ -13743,7 +13765,7 @@
         <v>38450</v>
       </c>
       <c r="K265" t="n">
-        <v>5.660377358490567</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L265" t="n">
         <v>68310</v>
@@ -13794,7 +13816,7 @@
         <v>38500</v>
       </c>
       <c r="K266" t="n">
-        <v>9.803921568627452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>68295</v>
@@ -13845,7 +13867,7 @@
         <v>38500</v>
       </c>
       <c r="K267" t="n">
-        <v>4.166666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>68260</v>
@@ -13896,7 +13918,7 @@
         <v>38500</v>
       </c>
       <c r="K268" t="n">
-        <v>8.695652173913043</v>
+        <v>-75</v>
       </c>
       <c r="L268" t="n">
         <v>68225</v>
@@ -13947,7 +13969,7 @@
         <v>38550</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L269" t="n">
         <v>68170</v>
@@ -13998,7 +14020,7 @@
         <v>38600</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L270" t="n">
         <v>68120</v>
@@ -14049,7 +14071,7 @@
         <v>38700</v>
       </c>
       <c r="K271" t="n">
-        <v>4.545454545454546</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L271" t="n">
         <v>68080</v>
@@ -14100,7 +14122,7 @@
         <v>38800</v>
       </c>
       <c r="K272" t="n">
-        <v>8.695652173913043</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L272" t="n">
         <v>68115</v>
@@ -14151,7 +14173,7 @@
         <v>38900</v>
       </c>
       <c r="K273" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="L273" t="n">
         <v>68160</v>
@@ -14202,7 +14224,7 @@
         <v>38950</v>
       </c>
       <c r="K274" t="n">
-        <v>10.20408163265306</v>
+        <v>60</v>
       </c>
       <c r="L274" t="n">
         <v>68195</v>
@@ -14253,7 +14275,7 @@
         <v>39050</v>
       </c>
       <c r="K275" t="n">
-        <v>31.81818181818182</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L275" t="n">
         <v>68235</v>
@@ -14304,7 +14326,7 @@
         <v>39050</v>
       </c>
       <c r="K276" t="n">
-        <v>16.66666666666666</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L276" t="n">
         <v>68280</v>
@@ -14355,7 +14377,7 @@
         <v>39100</v>
       </c>
       <c r="K277" t="n">
-        <v>3.03030303030303</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>68320</v>
@@ -14406,7 +14428,7 @@
         <v>39550</v>
       </c>
       <c r="K278" t="n">
-        <v>-19.04761904761905</v>
+        <v>-10</v>
       </c>
       <c r="L278" t="n">
         <v>68315</v>
@@ -14457,7 +14479,7 @@
         <v>40100</v>
       </c>
       <c r="K279" t="n">
-        <v>-4.166666666666666</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L279" t="n">
         <v>68360</v>
@@ -14508,7 +14530,7 @@
         <v>40300</v>
       </c>
       <c r="K280" t="n">
-        <v>3.846153846153846</v>
+        <v>31.25</v>
       </c>
       <c r="L280" t="n">
         <v>68420</v>
@@ -14559,7 +14581,7 @@
         <v>40700</v>
       </c>
       <c r="K281" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>68430</v>
@@ -14610,7 +14632,7 @@
         <v>41150</v>
       </c>
       <c r="K282" t="n">
-        <v>28.57142857142857</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L282" t="n">
         <v>68475</v>
@@ -14661,7 +14683,7 @@
         <v>41550</v>
       </c>
       <c r="K283" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>68470</v>
@@ -14712,7 +14734,7 @@
         <v>42000</v>
       </c>
       <c r="K284" t="n">
-        <v>-2.777777777777778</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L284" t="n">
         <v>68425</v>
@@ -14763,7 +14785,7 @@
         <v>42400</v>
       </c>
       <c r="K285" t="n">
-        <v>6.329113924050633</v>
+        <v>-4.477611940298507</v>
       </c>
       <c r="L285" t="n">
         <v>68410</v>
@@ -14814,7 +14836,7 @@
         <v>42400</v>
       </c>
       <c r="K286" t="n">
-        <v>7.692307692307693</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L286" t="n">
         <v>68395</v>
@@ -14865,7 +14887,7 @@
         <v>42800</v>
       </c>
       <c r="K287" t="n">
-        <v>16.27906976744186</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L287" t="n">
         <v>68425</v>
@@ -14916,7 +14938,7 @@
         <v>42850</v>
       </c>
       <c r="K288" t="n">
-        <v>17.24137931034483</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L288" t="n">
         <v>68505</v>
@@ -14967,7 +14989,7 @@
         <v>43150</v>
       </c>
       <c r="K289" t="n">
-        <v>8.695652173913043</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L289" t="n">
         <v>68500</v>
@@ -15018,7 +15040,7 @@
         <v>43200</v>
       </c>
       <c r="K290" t="n">
-        <v>8.695652173913043</v>
+        <v>8</v>
       </c>
       <c r="L290" t="n">
         <v>68480</v>
@@ -15069,7 +15091,7 @@
         <v>43250</v>
       </c>
       <c r="K291" t="n">
-        <v>5.494505494505495</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>68495</v>
@@ -15120,7 +15142,7 @@
         <v>43250</v>
       </c>
       <c r="K292" t="n">
-        <v>3.370786516853932</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L292" t="n">
         <v>68465</v>
@@ -15171,7 +15193,7 @@
         <v>43250</v>
       </c>
       <c r="K293" t="n">
-        <v>1.149425287356322</v>
+        <v>44</v>
       </c>
       <c r="L293" t="n">
         <v>68475</v>
@@ -15222,7 +15244,7 @@
         <v>43250</v>
       </c>
       <c r="K294" t="n">
-        <v>2.325581395348837</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L294" t="n">
         <v>68530</v>
@@ -15273,7 +15295,7 @@
         <v>43800</v>
       </c>
       <c r="K295" t="n">
-        <v>-11.57894736842105</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L295" t="n">
         <v>68490</v>
@@ -15324,7 +15346,7 @@
         <v>44150</v>
       </c>
       <c r="K296" t="n">
-        <v>-3.92156862745098</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>68485</v>
@@ -15375,7 +15397,7 @@
         <v>44150</v>
       </c>
       <c r="K297" t="n">
-        <v>-2.97029702970297</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L297" t="n">
         <v>68440</v>
@@ -15426,7 +15448,7 @@
         <v>44350</v>
       </c>
       <c r="K298" t="n">
-        <v>10.41666666666667</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>68410</v>
@@ -15477,7 +15499,7 @@
         <v>44550</v>
       </c>
       <c r="K299" t="n">
-        <v>-5.617977528089887</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L299" t="n">
         <v>68390</v>
@@ -15528,7 +15550,7 @@
         <v>44750</v>
       </c>
       <c r="K300" t="n">
-        <v>-5.617977528089887</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>68385</v>
@@ -15579,7 +15601,7 @@
         <v>45000</v>
       </c>
       <c r="K301" t="n">
-        <v>9.302325581395349</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L301" t="n">
         <v>68410</v>
@@ -15630,7 +15652,7 @@
         <v>45000</v>
       </c>
       <c r="K302" t="n">
-        <v>-1.298701298701299</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L302" t="n">
         <v>68435</v>
@@ -15681,7 +15703,7 @@
         <v>45150</v>
       </c>
       <c r="K303" t="n">
-        <v>5.555555555555555</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L303" t="n">
         <v>68445</v>
@@ -15732,7 +15754,7 @@
         <v>45300</v>
       </c>
       <c r="K304" t="n">
-        <v>24.24242424242424</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L304" t="n">
         <v>68470</v>
@@ -15783,7 +15805,7 @@
         <v>45500</v>
       </c>
       <c r="K305" t="n">
-        <v>6.451612903225806</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L305" t="n">
         <v>68530</v>
@@ -15834,7 +15856,7 @@
         <v>45650</v>
       </c>
       <c r="K306" t="n">
-        <v>10.76923076923077</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L306" t="n">
         <v>68570</v>
@@ -15885,7 +15907,7 @@
         <v>45650</v>
       </c>
       <c r="K307" t="n">
-        <v>-1.754385964912281</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L307" t="n">
         <v>68610</v>
@@ -15936,7 +15958,7 @@
         <v>45700</v>
       </c>
       <c r="K308" t="n">
-        <v>-1.754385964912281</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L308" t="n">
         <v>68635</v>
@@ -15987,7 +16009,7 @@
         <v>45750</v>
       </c>
       <c r="K309" t="n">
-        <v>11.53846153846154</v>
+        <v>30</v>
       </c>
       <c r="L309" t="n">
         <v>68685</v>
@@ -16038,7 +16060,7 @@
         <v>45750</v>
       </c>
       <c r="K310" t="n">
-        <v>9.803921568627452</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L310" t="n">
         <v>68715</v>
@@ -16089,7 +16111,7 @@
         <v>45750</v>
       </c>
       <c r="K311" t="n">
-        <v>12</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L311" t="n">
         <v>68720</v>
@@ -16140,7 +16162,7 @@
         <v>45900</v>
       </c>
       <c r="K312" t="n">
-        <v>16.9811320754717</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L312" t="n">
         <v>68740</v>
@@ -16191,7 +16213,7 @@
         <v>45900</v>
       </c>
       <c r="K313" t="n">
-        <v>16.9811320754717</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>68775</v>
@@ -16242,7 +16264,7 @@
         <v>45900</v>
       </c>
       <c r="K314" t="n">
-        <v>16.9811320754717</v>
+        <v>100</v>
       </c>
       <c r="L314" t="n">
         <v>68795</v>
@@ -16293,7 +16315,7 @@
         <v>45950</v>
       </c>
       <c r="K315" t="n">
-        <v>48.83720930232558</v>
+        <v>100</v>
       </c>
       <c r="L315" t="n">
         <v>68840</v>
@@ -16344,7 +16366,7 @@
         <v>46050</v>
       </c>
       <c r="K316" t="n">
-        <v>42.10526315789473</v>
+        <v>100</v>
       </c>
       <c r="L316" t="n">
         <v>68880</v>
@@ -16395,7 +16417,7 @@
         <v>46150</v>
       </c>
       <c r="K317" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L317" t="n">
         <v>68930</v>
@@ -16446,7 +16468,7 @@
         <v>46200</v>
       </c>
       <c r="K318" t="n">
-        <v>40.54054054054054</v>
+        <v>100</v>
       </c>
       <c r="L318" t="n">
         <v>68980</v>
@@ -16497,7 +16519,7 @@
         <v>46300</v>
       </c>
       <c r="K319" t="n">
-        <v>48.57142857142857</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L319" t="n">
         <v>69015</v>
@@ -16548,7 +16570,7 @@
         <v>46300</v>
       </c>
       <c r="K320" t="n">
-        <v>41.93548387096774</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L320" t="n">
         <v>69050</v>
@@ -16599,7 +16621,7 @@
         <v>46300</v>
       </c>
       <c r="K321" t="n">
-        <v>30.76923076923077</v>
+        <v>50</v>
       </c>
       <c r="L321" t="n">
         <v>69085</v>
@@ -16650,7 +16672,7 @@
         <v>46350</v>
       </c>
       <c r="K322" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L322" t="n">
         <v>69110</v>
@@ -16701,7 +16723,7 @@
         <v>46400</v>
       </c>
       <c r="K323" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L323" t="n">
         <v>69140</v>
@@ -16752,7 +16774,7 @@
         <v>46550</v>
       </c>
       <c r="K324" t="n">
-        <v>28</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L324" t="n">
         <v>69155</v>
@@ -16803,7 +16825,7 @@
         <v>46600</v>
       </c>
       <c r="K325" t="n">
-        <v>54.54545454545454</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L325" t="n">
         <v>69170</v>
@@ -16854,7 +16876,7 @@
         <v>46650</v>
       </c>
       <c r="K326" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>69180</v>
@@ -16905,7 +16927,7 @@
         <v>46700</v>
       </c>
       <c r="K327" t="n">
-        <v>52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>69185</v>
@@ -16956,7 +16978,7 @@
         <v>46750</v>
       </c>
       <c r="K328" t="n">
-        <v>52.38095238095239</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>69190</v>
@@ -17007,7 +17029,7 @@
         <v>47200</v>
       </c>
       <c r="K329" t="n">
-        <v>65.51724137931035</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L329" t="n">
         <v>69250</v>
@@ -17058,7 +17080,7 @@
         <v>47250</v>
       </c>
       <c r="K330" t="n">
-        <v>60</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L330" t="n">
         <v>69305</v>
@@ -17109,7 +17131,7 @@
         <v>47350</v>
       </c>
       <c r="K331" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="L331" t="n">
         <v>69370</v>
@@ -17160,7 +17182,7 @@
         <v>47400</v>
       </c>
       <c r="K332" t="n">
-        <v>53.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="L332" t="n">
         <v>69425</v>
@@ -17211,7 +17233,7 @@
         <v>47400</v>
       </c>
       <c r="K333" t="n">
-        <v>53.33333333333334</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L333" t="n">
         <v>69475</v>
@@ -17262,7 +17284,7 @@
         <v>47450</v>
       </c>
       <c r="K334" t="n">
-        <v>54.83870967741935</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L334" t="n">
         <v>69545</v>
@@ -17313,7 +17335,7 @@
         <v>47450</v>
       </c>
       <c r="K335" t="n">
-        <v>53.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="L335" t="n">
         <v>69610</v>
@@ -17364,7 +17386,7 @@
         <v>47500</v>
       </c>
       <c r="K336" t="n">
-        <v>51.72413793103448</v>
+        <v>75</v>
       </c>
       <c r="L336" t="n">
         <v>69675</v>
@@ -17415,7 +17437,7 @@
         <v>47550</v>
       </c>
       <c r="K337" t="n">
-        <v>42.85714285714285</v>
+        <v>62.5</v>
       </c>
       <c r="L337" t="n">
         <v>69730</v>
@@ -17466,7 +17488,7 @@
         <v>47600</v>
       </c>
       <c r="K338" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L338" t="n">
         <v>69785</v>
@@ -17517,7 +17539,7 @@
         <v>47650</v>
       </c>
       <c r="K339" t="n">
-        <v>48.14814814814815</v>
+        <v>25</v>
       </c>
       <c r="L339" t="n">
         <v>69790</v>
@@ -17568,7 +17590,7 @@
         <v>47650</v>
       </c>
       <c r="K340" t="n">
-        <v>48.14814814814815</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>69800</v>
@@ -17619,7 +17641,7 @@
         <v>47650</v>
       </c>
       <c r="K341" t="n">
-        <v>48.14814814814815</v>
+        <v>20</v>
       </c>
       <c r="L341" t="n">
         <v>69800</v>
@@ -17670,7 +17692,7 @@
         <v>48100</v>
       </c>
       <c r="K342" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L342" t="n">
         <v>69850</v>
@@ -17721,7 +17743,7 @@
         <v>48150</v>
       </c>
       <c r="K343" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L343" t="n">
         <v>69905</v>
@@ -17772,7 +17794,7 @@
         <v>48200</v>
       </c>
       <c r="K344" t="n">
-        <v>75.75757575757575</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>69960</v>
@@ -17823,7 +17845,7 @@
         <v>48250</v>
       </c>
       <c r="K345" t="n">
-        <v>75.75757575757575</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>70020</v>
@@ -17874,7 +17896,7 @@
         <v>48300</v>
       </c>
       <c r="K346" t="n">
-        <v>75.75757575757575</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L346" t="n">
         <v>70080</v>
@@ -17925,7 +17947,7 @@
         <v>48300</v>
       </c>
       <c r="K347" t="n">
-        <v>75</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L347" t="n">
         <v>70145</v>
@@ -17976,7 +17998,7 @@
         <v>48600</v>
       </c>
       <c r="K348" t="n">
-        <v>45.94594594594595</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L348" t="n">
         <v>70175</v>
@@ -18027,7 +18049,7 @@
         <v>48850</v>
       </c>
       <c r="K349" t="n">
-        <v>39.39393939393939</v>
+        <v>50</v>
       </c>
       <c r="L349" t="n">
         <v>70235</v>
@@ -18078,7 +18100,7 @@
         <v>49050</v>
       </c>
       <c r="K350" t="n">
-        <v>27.77777777777778</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L350" t="n">
         <v>70275</v>
@@ -18129,7 +18151,7 @@
         <v>49250</v>
       </c>
       <c r="K351" t="n">
-        <v>31.57894736842105</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L351" t="n">
         <v>70335</v>
@@ -18180,7 +18202,7 @@
         <v>49300</v>
       </c>
       <c r="K352" t="n">
-        <v>31.57894736842105</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L352" t="n">
         <v>70345</v>
@@ -18231,7 +18253,7 @@
         <v>49300</v>
       </c>
       <c r="K353" t="n">
-        <v>31.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>70350</v>
@@ -18282,7 +18304,7 @@
         <v>49300</v>
       </c>
       <c r="K354" t="n">
-        <v>29.72972972972973</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L354" t="n">
         <v>70350</v>
@@ -18333,7 +18355,7 @@
         <v>49550</v>
       </c>
       <c r="K355" t="n">
-        <v>14.28571428571428</v>
+        <v>-28</v>
       </c>
       <c r="L355" t="n">
         <v>70320</v>
@@ -18384,7 +18406,7 @@
         <v>49750</v>
       </c>
       <c r="K356" t="n">
-        <v>20</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L356" t="n">
         <v>70305</v>
@@ -18435,7 +18457,7 @@
         <v>49900</v>
       </c>
       <c r="K357" t="n">
-        <v>27.65957446808511</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L357" t="n">
         <v>70305</v>
@@ -18486,7 +18508,7 @@
         <v>49950</v>
       </c>
       <c r="K358" t="n">
-        <v>23.40425531914894</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>70330</v>
@@ -18537,7 +18559,7 @@
         <v>50000</v>
       </c>
       <c r="K359" t="n">
-        <v>27.65957446808511</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L359" t="n">
         <v>70335</v>
@@ -18588,7 +18610,7 @@
         <v>50050</v>
       </c>
       <c r="K360" t="n">
-        <v>29.16666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="L360" t="n">
         <v>70365</v>
@@ -18639,7 +18661,7 @@
         <v>50050</v>
       </c>
       <c r="K361" t="n">
-        <v>29.16666666666667</v>
+        <v>20</v>
       </c>
       <c r="L361" t="n">
         <v>70375</v>
@@ -18690,7 +18712,7 @@
         <v>50050</v>
       </c>
       <c r="K362" t="n">
-        <v>12.82051282051282</v>
+        <v>20</v>
       </c>
       <c r="L362" t="n">
         <v>70390</v>
@@ -18741,7 +18763,7 @@
         <v>50900</v>
       </c>
       <c r="K363" t="n">
-        <v>38.18181818181819</v>
+        <v>62.5</v>
       </c>
       <c r="L363" t="n">
         <v>70490</v>
@@ -18792,7 +18814,7 @@
         <v>51450</v>
       </c>
       <c r="K364" t="n">
-        <v>13.84615384615385</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L364" t="n">
         <v>70535</v>
@@ -18843,7 +18865,7 @@
         <v>51650</v>
       </c>
       <c r="K365" t="n">
-        <v>5.88235294117647</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L365" t="n">
         <v>70585</v>
@@ -18894,7 +18916,7 @@
         <v>51750</v>
       </c>
       <c r="K366" t="n">
-        <v>1.449275362318841</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L366" t="n">
         <v>70605</v>
@@ -18945,7 +18967,7 @@
         <v>51850</v>
       </c>
       <c r="K367" t="n">
-        <v>4.225352112676056</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L367" t="n">
         <v>70620</v>
@@ -18996,7 +19018,7 @@
         <v>52000</v>
       </c>
       <c r="K368" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="L368" t="n">
         <v>70625</v>
@@ -19047,7 +19069,7 @@
         <v>52050</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L369" t="n">
         <v>70620</v>
@@ -19098,7 +19120,7 @@
         <v>52500</v>
       </c>
       <c r="K370" t="n">
-        <v>18.84057971014493</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L370" t="n">
         <v>70655</v>
@@ -19149,7 +19171,7 @@
         <v>52500</v>
       </c>
       <c r="K371" t="n">
-        <v>13.84615384615385</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L371" t="n">
         <v>70690</v>
@@ -19200,7 +19222,7 @@
         <v>52750</v>
       </c>
       <c r="K372" t="n">
-        <v>21.73913043478261</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L372" t="n">
         <v>70750</v>
@@ -19251,7 +19273,7 @@
         <v>52750</v>
       </c>
       <c r="K373" t="n">
-        <v>21.73913043478261</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L373" t="n">
         <v>70725</v>
@@ -19302,7 +19324,7 @@
         <v>52850</v>
       </c>
       <c r="K374" t="n">
-        <v>23.94366197183098</v>
+        <v>50</v>
       </c>
       <c r="L374" t="n">
         <v>70765</v>
@@ -19353,7 +19375,7 @@
         <v>53100</v>
       </c>
       <c r="K375" t="n">
-        <v>38.0281690140845</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L375" t="n">
         <v>70850</v>
@@ -19404,7 +19426,7 @@
         <v>53350</v>
       </c>
       <c r="K376" t="n">
-        <v>38.88888888888889</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>70970</v>
@@ -19455,7 +19477,7 @@
         <v>53750</v>
       </c>
       <c r="K377" t="n">
-        <v>22.07792207792208</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L377" t="n">
         <v>71040</v>
@@ -19506,7 +19528,7 @@
         <v>54050</v>
       </c>
       <c r="K378" t="n">
-        <v>14.63414634146341</v>
+        <v>30</v>
       </c>
       <c r="L378" t="n">
         <v>71095</v>
@@ -19557,7 +19579,7 @@
         <v>54150</v>
       </c>
       <c r="K379" t="n">
-        <v>10.8433734939759</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L379" t="n">
         <v>71145</v>
@@ -19608,7 +19630,7 @@
         <v>54400</v>
       </c>
       <c r="K380" t="n">
-        <v>14.94252873563219</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L380" t="n">
         <v>71175</v>
@@ -19659,7 +19681,7 @@
         <v>54950</v>
       </c>
       <c r="K381" t="n">
-        <v>2.040816326530612</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L381" t="n">
         <v>71150</v>
@@ -19710,7 +19732,7 @@
         <v>55200</v>
       </c>
       <c r="K382" t="n">
-        <v>-2.912621359223301</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L382" t="n">
         <v>71075</v>
@@ -19761,7 +19783,7 @@
         <v>55850</v>
       </c>
       <c r="K383" t="n">
-        <v>-7.07070707070707</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L383" t="n">
         <v>71065</v>
@@ -19812,7 +19834,7 @@
         <v>55900</v>
       </c>
       <c r="K384" t="n">
-        <v>3.370786516853932</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L384" t="n">
         <v>71040</v>
@@ -19863,7 +19885,7 @@
         <v>56350</v>
       </c>
       <c r="K385" t="n">
-        <v>-2.127659574468085</v>
+        <v>-40</v>
       </c>
       <c r="L385" t="n">
         <v>70945</v>
@@ -19914,7 +19936,7 @@
         <v>56450</v>
       </c>
       <c r="K386" t="n">
-        <v>2.127659574468085</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L386" t="n">
         <v>70835</v>
@@ -19965,7 +19987,7 @@
         <v>56600</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.157894736842105</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L387" t="n">
         <v>70750</v>
@@ -20016,7 +20038,7 @@
         <v>56850</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.154639175257731</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L388" t="n">
         <v>70670</v>
@@ -20067,7 +20089,7 @@
         <v>57100</v>
       </c>
       <c r="K389" t="n">
-        <v>0.9900990099009901</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L389" t="n">
         <v>70625</v>
@@ -20118,7 +20140,7 @@
         <v>57350</v>
       </c>
       <c r="K390" t="n">
-        <v>-13.4020618556701</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L390" t="n">
         <v>70530</v>
@@ -20169,7 +20191,7 @@
         <v>57550</v>
       </c>
       <c r="K391" t="n">
-        <v>-8.91089108910891</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L391" t="n">
         <v>70510</v>
@@ -20220,7 +20242,7 @@
         <v>57550</v>
       </c>
       <c r="K392" t="n">
-        <v>-14.58333333333333</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L392" t="n">
         <v>70515</v>
@@ -20271,7 +20293,7 @@
         <v>57800</v>
       </c>
       <c r="K393" t="n">
-        <v>-8.91089108910891</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L393" t="n">
         <v>70480</v>
@@ -20322,7 +20344,7 @@
         <v>58250</v>
       </c>
       <c r="K394" t="n">
-        <v>-1.851851851851852</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L394" t="n">
         <v>70495</v>
@@ -20373,7 +20395,7 @@
         <v>58850</v>
       </c>
       <c r="K395" t="n">
-        <v>-16.52173913043478</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L395" t="n">
         <v>70495</v>
@@ -20424,7 +20446,7 @@
         <v>59050</v>
       </c>
       <c r="K396" t="n">
-        <v>-24.56140350877193</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L396" t="n">
         <v>70465</v>
@@ -20475,7 +20497,7 @@
         <v>59450</v>
       </c>
       <c r="K397" t="n">
-        <v>-10.52631578947368</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L397" t="n">
         <v>70490</v>
@@ -20526,7 +20548,7 @@
         <v>59650</v>
       </c>
       <c r="K398" t="n">
-        <v>-8.928571428571429</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L398" t="n">
         <v>70520</v>
@@ -20577,7 +20599,7 @@
         <v>60000</v>
       </c>
       <c r="K399" t="n">
-        <v>-12.82051282051282</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L399" t="n">
         <v>70490</v>
@@ -20628,7 +20650,7 @@
         <v>60450</v>
       </c>
       <c r="K400" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L400" t="n">
         <v>70530</v>
@@ -20679,7 +20701,7 @@
         <v>60500</v>
       </c>
       <c r="K401" t="n">
-        <v>-0.9009009009009009</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L401" t="n">
         <v>70545</v>
@@ -20730,7 +20752,7 @@
         <v>60500</v>
       </c>
       <c r="K402" t="n">
-        <v>3.773584905660377</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L402" t="n">
         <v>70560</v>
@@ -20781,7 +20803,7 @@
         <v>60850</v>
       </c>
       <c r="K403" t="n">
-        <v>-16</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L403" t="n">
         <v>70515</v>
@@ -20832,7 +20854,7 @@
         <v>60950</v>
       </c>
       <c r="K404" t="n">
-        <v>-12.87128712871287</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L404" t="n">
         <v>70435</v>
@@ -20883,7 +20905,7 @@
         <v>61200</v>
       </c>
       <c r="K405" t="n">
-        <v>1.030927835051546</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L405" t="n">
         <v>70440</v>
@@ -20934,7 +20956,7 @@
         <v>61200</v>
       </c>
       <c r="K406" t="n">
-        <v>-1.052631578947368</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L406" t="n">
         <v>70465</v>
@@ -20985,7 +21007,7 @@
         <v>61200</v>
       </c>
       <c r="K407" t="n">
-        <v>2.173913043478261</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L407" t="n">
         <v>70450</v>
@@ -21036,7 +21058,7 @@
         <v>61200</v>
       </c>
       <c r="K408" t="n">
-        <v>8.045977011494253</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>70455</v>
@@ -21087,7 +21109,7 @@
         <v>61400</v>
       </c>
       <c r="K409" t="n">
-        <v>6.976744186046512</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L409" t="n">
         <v>70515</v>
@@ -21138,7 +21160,7 @@
         <v>61750</v>
       </c>
       <c r="K410" t="n">
-        <v>20.45454545454546</v>
+        <v>44</v>
       </c>
       <c r="L410" t="n">
         <v>70565</v>
@@ -21189,7 +21211,7 @@
         <v>61750</v>
       </c>
       <c r="K411" t="n">
-        <v>16.66666666666666</v>
+        <v>44</v>
       </c>
       <c r="L411" t="n">
         <v>70620</v>
@@ -21240,7 +21262,7 @@
         <v>62350</v>
       </c>
       <c r="K412" t="n">
-        <v>2.083333333333333</v>
+        <v>20</v>
       </c>
       <c r="L412" t="n">
         <v>70615</v>
@@ -21291,7 +21313,7 @@
         <v>62900</v>
       </c>
       <c r="K413" t="n">
-        <v>7.84313725490196</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L413" t="n">
         <v>70700</v>
@@ -21342,7 +21364,7 @@
         <v>62950</v>
       </c>
       <c r="K414" t="n">
-        <v>-2.127659574468085</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L414" t="n">
         <v>70770</v>
@@ -21393,7 +21415,7 @@
         <v>62950</v>
       </c>
       <c r="K415" t="n">
-        <v>12.19512195121951</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L415" t="n">
         <v>70815</v>
@@ -21444,7 +21466,7 @@
         <v>63000</v>
       </c>
       <c r="K416" t="n">
-        <v>16.45569620253164</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L416" t="n">
         <v>70855</v>
@@ -21495,7 +21517,7 @@
         <v>63550</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.317073170731707</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L417" t="n">
         <v>70840</v>
@@ -21546,7 +21568,7 @@
         <v>63600</v>
       </c>
       <c r="K418" t="n">
-        <v>-1.265822784810127</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L418" t="n">
         <v>70830</v>
@@ -21597,7 +21619,7 @@
         <v>63700</v>
       </c>
       <c r="K419" t="n">
-        <v>10.81081081081081</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L419" t="n">
         <v>70810</v>
@@ -21648,7 +21670,7 @@
         <v>64050</v>
       </c>
       <c r="K420" t="n">
-        <v>8.333333333333332</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L420" t="n">
         <v>70790</v>
@@ -21699,7 +21721,7 @@
         <v>64050</v>
       </c>
       <c r="K421" t="n">
-        <v>9.859154929577464</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L421" t="n">
         <v>70770</v>
@@ -21750,7 +21772,7 @@
         <v>64100</v>
       </c>
       <c r="K422" t="n">
-        <v>11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L422" t="n">
         <v>70815</v>
@@ -21801,7 +21823,7 @@
         <v>64150</v>
       </c>
       <c r="K423" t="n">
-        <v>21.21212121212121</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L423" t="n">
         <v>70800</v>
@@ -21852,7 +21874,7 @@
         <v>64300</v>
       </c>
       <c r="K424" t="n">
-        <v>22.38805970149254</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L424" t="n">
         <v>70805</v>
@@ -21903,7 +21925,7 @@
         <v>64350</v>
       </c>
       <c r="K425" t="n">
-        <v>17.46031746031746</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L425" t="n">
         <v>70815</v>
@@ -21954,7 +21976,7 @@
         <v>64350</v>
       </c>
       <c r="K426" t="n">
-        <v>17.46031746031746</v>
+        <v>87.5</v>
       </c>
       <c r="L426" t="n">
         <v>70830</v>
@@ -22005,7 +22027,7 @@
         <v>64350</v>
       </c>
       <c r="K427" t="n">
-        <v>17.46031746031746</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L427" t="n">
         <v>70900</v>
@@ -22056,7 +22078,7 @@
         <v>64350</v>
       </c>
       <c r="K428" t="n">
-        <v>17.46031746031746</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L428" t="n">
         <v>70965</v>
@@ -22107,7 +22129,7 @@
         <v>64350</v>
       </c>
       <c r="K429" t="n">
-        <v>11.86440677966102</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L429" t="n">
         <v>71020</v>
@@ -22158,7 +22180,7 @@
         <v>64350</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L430" t="n">
         <v>71040</v>
@@ -22209,7 +22231,7 @@
         <v>64350</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L431" t="n">
         <v>71060</v>
@@ -22260,7 +22282,7 @@
         <v>64450</v>
       </c>
       <c r="K432" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L432" t="n">
         <v>71085</v>
@@ -22311,7 +22333,7 @@
         <v>64650</v>
       </c>
       <c r="K433" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L433" t="n">
         <v>71135</v>

--- a/BackTest/2019-10-17 BackTest XMR.xlsx
+++ b/BackTest/2019-10-17 BackTest XMR.xlsx
@@ -451,17 +451,13 @@
         <v>64603.33333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K2" t="n">
-        <v>64650</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>64610</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K3" t="n">
-        <v>64650</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>64617.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K4" t="n">
-        <v>64650</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>64621.66666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>64550</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>64625</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>64550</v>
-      </c>
-      <c r="K6" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>64622.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K7" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>64621.66666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>64550</v>
-      </c>
-      <c r="K8" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>64622.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>64600</v>
-      </c>
-      <c r="K9" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>64623.33333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>64600</v>
-      </c>
-      <c r="K10" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>64623.33333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>64550</v>
-      </c>
-      <c r="K11" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>64620.83333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K12" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>64618.33333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K13" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>64619.16666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K14" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>64620</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K15" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>64617.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K16" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>64615</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K17" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>64614.16666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K18" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>64613.33333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K19" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>64613.33333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1116,14 @@
         <v>64615.83333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>64500</v>
-      </c>
-      <c r="K21" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1303,22 +1151,14 @@
         <v>64615.83333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>64350</v>
-      </c>
-      <c r="K22" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1186,14 @@
         <v>64612.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K23" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1221,14 @@
         <v>64608.33333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K24" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1256,14 @@
         <v>64601.66666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>64100</v>
-      </c>
-      <c r="K25" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1291,14 @@
         <v>64593.33333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>64150</v>
-      </c>
-      <c r="K26" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1326,14 @@
         <v>64585</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>64050</v>
-      </c>
-      <c r="K27" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1361,14 @@
         <v>64582.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K28" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1396,14 @@
         <v>64580.83333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>64600</v>
-      </c>
-      <c r="K29" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1431,14 @@
         <v>64577.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>64600</v>
-      </c>
-      <c r="K30" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1466,14 @@
         <v>64575.83333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K31" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1733,22 +1501,14 @@
         <v>64579.16666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>64850</v>
-      </c>
-      <c r="K32" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1776,22 +1536,14 @@
         <v>64575</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>64450</v>
-      </c>
-      <c r="K33" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1571,14 @@
         <v>64575</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>64700</v>
-      </c>
-      <c r="K34" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1606,14 @@
         <v>64567.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>64350</v>
-      </c>
-      <c r="K35" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1905,22 +1641,14 @@
         <v>64557.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>64200</v>
-      </c>
-      <c r="K36" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1676,14 @@
         <v>64556.66666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K37" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1991,22 +1711,14 @@
         <v>64560</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>64850</v>
-      </c>
-      <c r="K38" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2034,22 +1746,14 @@
         <v>64559.16666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K39" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +1781,14 @@
         <v>64565.83333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>64950</v>
-      </c>
-      <c r="K40" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1816,14 @@
         <v>64575</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2163,22 +1851,14 @@
         <v>64584.16666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K42" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +1886,14 @@
         <v>64593.33333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K43" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2249,22 +1921,14 @@
         <v>64602.5</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K44" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +1956,14 @@
         <v>64607.5</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>64800</v>
-      </c>
-      <c r="K45" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2335,22 +1991,14 @@
         <v>64609.16666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K46" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2378,22 +2026,14 @@
         <v>64606.66666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>64700</v>
-      </c>
-      <c r="K47" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2421,22 +2061,14 @@
         <v>64608.33333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K48" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2464,22 +2096,14 @@
         <v>64606.66666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K49" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2507,22 +2131,14 @@
         <v>64607.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K50" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2550,22 +2166,14 @@
         <v>64608.33333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K51" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2593,22 +2201,14 @@
         <v>64606.66666666666</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>64800</v>
-      </c>
-      <c r="K52" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2636,22 +2236,14 @@
         <v>64607.5</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>64900</v>
-      </c>
-      <c r="K53" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2679,22 +2271,14 @@
         <v>64609.16666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K54" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +2306,14 @@
         <v>64613.33333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>65000</v>
-      </c>
-      <c r="K55" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2765,22 +2341,14 @@
         <v>64614.16666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K56" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2808,22 +2376,14 @@
         <v>64609.16666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>64650</v>
-      </c>
-      <c r="K57" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2851,22 +2411,14 @@
         <v>64615</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>65050</v>
-      </c>
-      <c r="K58" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2894,22 +2446,14 @@
         <v>64620.83333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K59" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2937,22 +2481,14 @@
         <v>64620.83333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>65200</v>
-      </c>
-      <c r="K60" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3150,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3232,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3273,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3355,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3437,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3478,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3519,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3601,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3642,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3765,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3847,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4011,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4049,17 +3429,11 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4090,17 +3464,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4175,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4257,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4298,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4421,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4462,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4503,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4626,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4708,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4749,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4790,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4831,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4954,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4995,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5077,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5118,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5200,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5364,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5405,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5446,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5487,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5528,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5610,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5651,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5733,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5774,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5856,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6020,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6061,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6184,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>64550</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6219,18 +5281,18 @@
         <v>66371.66666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>64550</v>
-      </c>
+      <c r="J140" t="n">
+        <v>66250</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M140" t="n">
@@ -6266,9 +5328,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,9 +5367,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,9 +5445,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,9 +5484,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,9 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6512,9 +5562,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,9 +5601,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,9 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,9 +5679,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6676,9 +5718,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,9 +5757,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6758,9 +5796,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,9 +5835,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6840,9 +5874,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6881,9 +5913,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,9 +5952,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,9 +5991,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7004,9 +6030,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,9 +6069,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7086,9 +6108,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,9 +6147,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7168,9 +6186,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7209,9 +6225,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7250,9 +6264,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7291,9 +6303,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7332,9 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,9 +6381,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,9 +6420,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,9 +6459,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,9 +6498,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,9 +6537,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,9 +6576,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,9 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,9 +6654,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7701,9 +6693,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,9 +6732,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,9 +6771,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,9 +6810,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,9 +6849,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7906,9 +6888,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,9 +6927,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,9 +6966,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8029,9 +7005,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,19 +7041,17 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>64550</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>1.047672347017816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -8108,11 +7080,15 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +7119,15 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7158,15 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8213,11 +7197,15 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8248,11 +7236,15 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +7279,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8322,7 +7318,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8357,7 +7357,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +7396,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8427,7 +7435,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +7474,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +7513,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8532,7 +7552,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8567,7 +7591,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8602,7 +7630,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +7669,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +7708,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +7747,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8742,7 +7786,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8777,7 +7825,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8812,7 +7864,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +7903,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +7942,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +7981,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +8020,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +8059,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +8098,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +8137,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8169,20 @@
         <v>67325</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>66600</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9120,14 +8210,20 @@
         <v>67319.16666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>66550</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +8251,20 @@
         <v>67321.66666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>66550</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9190,14 +8292,20 @@
         <v>67318.33333333333</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>67050</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9225,14 +8333,20 @@
         <v>67314.16666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>66650</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9260,14 +8374,20 @@
         <v>67326.66666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>66700</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8415,20 @@
         <v>67338.33333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>67650</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9330,14 +8456,20 @@
         <v>67350</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>67600</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +8497,20 @@
         <v>67363.33333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>67600</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +8538,20 @@
         <v>67362.5</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>67700</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9435,14 +8579,20 @@
         <v>67368.33333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>66900</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9470,14 +8620,20 @@
         <v>67371.66666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>67300</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9505,14 +8661,20 @@
         <v>67375.83333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>67150</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9540,14 +8702,20 @@
         <v>67381.66666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>67200</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +8743,20 @@
         <v>67389.16666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>67300</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9610,14 +8784,20 @@
         <v>67395</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>67450</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +8825,20 @@
         <v>67410</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>67150</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9680,14 +8866,20 @@
         <v>67420</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>67700</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9715,14 +8907,20 @@
         <v>67434.16666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>67650</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9750,14 +8948,20 @@
         <v>67439.16666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>67650</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9785,14 +8989,20 @@
         <v>67444.16666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>67350</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +9037,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9855,14 +9069,20 @@
         <v>67452.5</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>67550</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9897,7 +9117,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9925,14 +9149,20 @@
         <v>67447.5</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>67500</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9967,7 +9197,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +9236,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10037,7 +9275,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10072,7 +9314,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10107,7 +9353,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10142,7 +9392,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10177,7 +9431,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10212,7 +9470,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +9509,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10282,7 +9548,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +9587,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +9626,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +9665,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10422,7 +9704,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10457,7 +9743,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10492,7 +9782,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +9821,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +9860,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10597,7 +9899,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10632,7 +9938,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10667,7 +9977,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10016,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10737,7 +10055,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +10090,15 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10803,11 +10129,15 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +10172,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10877,7 +10211,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10908,11 +10246,15 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +10285,15 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +10324,15 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +10363,15 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11048,11 +10402,15 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11087,7 +10445,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11122,7 +10484,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11157,7 +10523,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11192,7 +10562,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11227,7 +10601,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11262,7 +10640,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11297,7 +10679,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11332,7 +10718,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11367,7 +10757,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +10796,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11437,7 +10835,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11468,11 +10870,15 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11503,11 +10909,15 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +10948,15 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11577,7 +10991,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11612,7 +11030,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11647,7 +11069,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +11108,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +11147,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11752,7 +11186,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11787,7 +11225,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11822,7 +11264,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +11303,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11892,7 +11342,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11927,7 +11381,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11962,7 +11420,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +11459,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12032,7 +11498,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12067,7 +11537,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +11576,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +11615,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12172,7 +11654,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12207,7 +11693,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12242,7 +11732,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12277,7 +11771,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12312,7 +11810,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12347,7 +11849,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12382,7 +11888,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12417,7 +11927,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12452,7 +11966,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12487,7 +12005,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12522,7 +12044,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +12083,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12592,7 +12122,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +12161,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12662,7 +12200,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +12239,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12732,7 +12278,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12767,7 +12317,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12798,11 +12352,15 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +12391,15 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +12434,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12907,7 +12473,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12942,7 +12512,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12977,7 +12551,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +12590,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13047,7 +12629,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13082,7 +12668,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13117,7 +12707,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13152,7 +12746,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13187,7 +12785,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13222,10 +12824,12 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13323,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -13358,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -13393,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
@@ -13428,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
@@ -13673,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
@@ -13708,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
@@ -13743,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
@@ -13778,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
@@ -13813,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
@@ -13848,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
@@ -13883,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
@@ -13918,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
@@ -13953,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest XMR.xlsx
+++ b/BackTest/2019-10-17 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>359.139911152267</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>358.708711152267</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>64250</v>
@@ -521,7 +521,7 @@
         <v>363.708711152267</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>64200</v>
@@ -562,7 +562,7 @@
         <v>383.708711152267</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>64300</v>
@@ -603,7 +603,7 @@
         <v>404.1100526835889</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>64350</v>
@@ -644,7 +644,7 @@
         <v>403.0100526835889</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>64650</v>
@@ -685,7 +685,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>64600</v>
@@ -726,7 +726,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>64550</v>
@@ -767,7 +767,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>64550</v>
@@ -808,7 +808,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>64550</v>
@@ -849,7 +849,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>64550</v>
@@ -890,7 +890,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>64550</v>
@@ -931,7 +931,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>64350</v>
@@ -972,7 +972,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>64350</v>
@@ -1013,7 +1013,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>64550</v>
@@ -1054,7 +1054,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>64550</v>
@@ -1095,7 +1095,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>64550</v>
@@ -1136,7 +1136,7 @@
         <v>369.118852683589</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>64550</v>
@@ -1177,7 +1177,7 @@
         <v>368.917252683589</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>64500</v>
@@ -1218,7 +1218,7 @@
         <v>368.917252683589</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>64350</v>
@@ -1259,7 +1259,7 @@
         <v>369.8052526835889</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>64350</v>
@@ -1300,7 +1300,7 @@
         <v>369.8052526835889</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>64400</v>
@@ -1341,7 +1341,7 @@
         <v>372.7495526835889</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>64400</v>
@@ -1382,7 +1382,7 @@
         <v>380.502157795905</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>64500</v>
@@ -1423,7 +1423,7 @@
         <v>380.502157795905</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>64550</v>
@@ -1464,7 +1464,7 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>64550</v>
@@ -1505,7 +1505,7 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>64700</v>
@@ -1546,7 +1546,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>64700</v>
@@ -1587,7 +1587,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>64800</v>
@@ -1628,9 +1628,11 @@
         <v>442.373757795905</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>64800</v>
+      </c>
       <c r="J31" t="n">
         <v>64250</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>487.579057795905</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>64650</v>
@@ -1708,9 +1710,11 @@
         <v>487.579057795905</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>64700</v>
+      </c>
       <c r="J33" t="n">
         <v>64250</v>
       </c>
@@ -1747,9 +1751,11 @@
         <v>488.502057795905</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>64700</v>
+      </c>
       <c r="J34" t="n">
         <v>64250</v>
       </c>
@@ -1786,9 +1792,11 @@
         <v>488.502057795905</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>64800</v>
+      </c>
       <c r="J35" t="n">
         <v>64250</v>
       </c>
@@ -1825,9 +1833,11 @@
         <v>488.502057795905</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>64800</v>
+      </c>
       <c r="J36" t="n">
         <v>64250</v>
       </c>
@@ -1864,9 +1874,11 @@
         <v>488.502057795905</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>64800</v>
+      </c>
       <c r="J37" t="n">
         <v>64250</v>
       </c>
@@ -1903,9 +1915,11 @@
         <v>487.554157795905</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>64800</v>
+      </c>
       <c r="J38" t="n">
         <v>64250</v>
       </c>
@@ -1942,9 +1956,11 @@
         <v>477.414657795905</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>64700</v>
+      </c>
       <c r="J39" t="n">
         <v>64250</v>
       </c>
@@ -1981,9 +1997,11 @@
         <v>475.195057795905</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>64550</v>
+      </c>
       <c r="J40" t="n">
         <v>64250</v>
       </c>
@@ -2020,9 +2038,11 @@
         <v>475.195057795905</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>64450</v>
+      </c>
       <c r="J41" t="n">
         <v>64250</v>
       </c>
@@ -2059,9 +2079,11 @@
         <v>475.195057795905</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64450</v>
+      </c>
       <c r="J42" t="n">
         <v>64250</v>
       </c>
@@ -2098,7 +2120,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>64450</v>
@@ -2139,7 +2161,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>64450</v>
@@ -2180,7 +2202,7 @@
         <v>495.195057795905</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>64450</v>
@@ -2221,7 +2243,7 @@
         <v>553.697657795905</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>64600</v>
@@ -2262,7 +2284,7 @@
         <v>550.527657795905</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>64750</v>
@@ -2303,7 +2325,7 @@
         <v>552.527657795905</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>64550</v>
@@ -2344,7 +2366,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>64750</v>
@@ -2385,7 +2407,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>64700</v>
@@ -2426,7 +2448,7 @@
         <v>545.107857795905</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>64700</v>
@@ -2467,9 +2489,11 @@
         <v>545.107857795905</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>64900</v>
+      </c>
       <c r="J52" t="n">
         <v>64250</v>
       </c>
@@ -2506,9 +2530,11 @@
         <v>545.107857795905</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64900</v>
+      </c>
       <c r="J53" t="n">
         <v>64250</v>
       </c>
@@ -2545,9 +2571,11 @@
         <v>519.284157795905</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64900</v>
+      </c>
       <c r="J54" t="n">
         <v>64250</v>
       </c>
@@ -2584,9 +2612,11 @@
         <v>504.284157795905</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64750</v>
+      </c>
       <c r="J55" t="n">
         <v>64250</v>
       </c>
@@ -2623,9 +2653,11 @@
         <v>518.418157795905</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>64700</v>
+      </c>
       <c r="J56" t="n">
         <v>64250</v>
       </c>
@@ -2662,9 +2694,11 @@
         <v>503.418157795905</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>64900</v>
+      </c>
       <c r="J57" t="n">
         <v>64250</v>
       </c>
@@ -2701,9 +2735,11 @@
         <v>503.418157795905</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>64800</v>
+      </c>
       <c r="J58" t="n">
         <v>64250</v>
       </c>
@@ -2740,9 +2776,11 @@
         <v>503.418157795905</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>64800</v>
+      </c>
       <c r="J59" t="n">
         <v>64250</v>
       </c>
@@ -2779,9 +2817,11 @@
         <v>491.963157795905</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>64800</v>
+      </c>
       <c r="J60" t="n">
         <v>64250</v>
       </c>
@@ -2818,9 +2858,11 @@
         <v>489.963157795905</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>64700</v>
+      </c>
       <c r="J61" t="n">
         <v>64250</v>
       </c>
@@ -2857,9 +2899,11 @@
         <v>489.963157795905</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>64650</v>
+      </c>
       <c r="J62" t="n">
         <v>64250</v>
       </c>
@@ -2896,9 +2940,11 @@
         <v>489.963157795905</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64650</v>
+      </c>
       <c r="J63" t="n">
         <v>64250</v>
       </c>
@@ -2935,9 +2981,11 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>64650</v>
+      </c>
       <c r="J64" t="n">
         <v>64250</v>
       </c>
@@ -2974,9 +3022,11 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>64550</v>
+      </c>
       <c r="J65" t="n">
         <v>64250</v>
       </c>
@@ -3013,9 +3063,11 @@
         <v>412.8720577959051</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64550</v>
+      </c>
       <c r="J66" t="n">
         <v>64250</v>
       </c>
@@ -3052,9 +3104,11 @@
         <v>425.998057795905</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>64500</v>
+      </c>
       <c r="J67" t="n">
         <v>64250</v>
       </c>
@@ -3091,7 +3145,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>64550</v>
@@ -3132,7 +3186,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>64600</v>
@@ -3173,7 +3227,7 @@
         <v>462.8368577959051</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>64600</v>
@@ -3214,7 +3268,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>64550</v>
@@ -3255,7 +3309,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>64400</v>
@@ -3296,7 +3350,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>64400</v>
@@ -3337,9 +3391,11 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>64400</v>
+      </c>
       <c r="J74" t="n">
         <v>64250</v>
       </c>
@@ -3376,9 +3432,11 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>64400</v>
+      </c>
       <c r="J75" t="n">
         <v>64250</v>
       </c>
@@ -3415,7 +3473,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>64400</v>
@@ -3456,7 +3514,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>64400</v>
@@ -3497,9 +3555,11 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>64500</v>
+      </c>
       <c r="J78" t="n">
         <v>64250</v>
       </c>
@@ -3536,9 +3596,11 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>64500</v>
+      </c>
       <c r="J79" t="n">
         <v>64250</v>
       </c>
@@ -3575,9 +3637,11 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>64500</v>
+      </c>
       <c r="J80" t="n">
         <v>64250</v>
       </c>
@@ -3614,9 +3678,11 @@
         <v>461.752757795905</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>64500</v>
+      </c>
       <c r="J81" t="n">
         <v>64250</v>
       </c>
@@ -3653,9 +3719,11 @@
         <v>441.402457795905</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>64350</v>
+      </c>
       <c r="J82" t="n">
         <v>64250</v>
       </c>
@@ -3692,9 +3760,11 @@
         <v>340.0518577959051</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>64200</v>
+      </c>
       <c r="J83" t="n">
         <v>64250</v>
       </c>
@@ -3731,9 +3801,11 @@
         <v>264.172557795905</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>64150</v>
+      </c>
       <c r="J84" t="n">
         <v>64250</v>
       </c>
@@ -3770,9 +3842,11 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>64100</v>
+      </c>
       <c r="J85" t="n">
         <v>64250</v>
       </c>
@@ -3809,9 +3883,11 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>64050</v>
+      </c>
       <c r="J86" t="n">
         <v>64250</v>
       </c>
@@ -3848,9 +3924,11 @@
         <v>280.4744577959051</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>64050</v>
+      </c>
       <c r="J87" t="n">
         <v>64250</v>
       </c>
@@ -3887,7 +3965,7 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>64550</v>
@@ -3928,7 +4006,7 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>64600</v>
@@ -3969,7 +4047,7 @@
         <v>292.7234577959051</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>64600</v>
@@ -4010,7 +4088,7 @@
         <v>296.7222577959051</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>64700</v>
@@ -4051,7 +4129,7 @@
         <v>293.0880577959051</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>64850</v>
@@ -4092,9 +4170,11 @@
         <v>295.3120577959051</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>64450</v>
+      </c>
       <c r="J93" t="n">
         <v>64250</v>
       </c>
@@ -4131,9 +4211,11 @@
         <v>294.2736577959051</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64700</v>
+      </c>
       <c r="J94" t="n">
         <v>64250</v>
       </c>
@@ -4170,7 +4252,7 @@
         <v>293.0936577959051</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>64350</v>
@@ -4211,7 +4293,7 @@
         <v>294.1936577959051</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>64200</v>
@@ -4252,7 +4334,7 @@
         <v>313.6403611035971</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>64750</v>
@@ -4293,7 +4375,7 @@
         <v>313.6136611035971</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>65000</v>
@@ -4334,7 +4416,7 @@
         <v>373.4465611035971</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>64650</v>
@@ -4375,9 +4457,11 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>64950</v>
+      </c>
       <c r="J100" t="n">
         <v>64250</v>
       </c>
@@ -4414,9 +4498,11 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>65000</v>
+      </c>
       <c r="J101" t="n">
         <v>64250</v>
       </c>
@@ -4453,9 +4539,11 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>65000</v>
+      </c>
       <c r="J102" t="n">
         <v>64250</v>
       </c>
@@ -4492,7 +4580,7 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>65000</v>
@@ -4533,9 +4621,11 @@
         <v>370.9314611035971</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>65000</v>
+      </c>
       <c r="J104" t="n">
         <v>64250</v>
       </c>
@@ -4572,7 +4662,7 @@
         <v>344.4399611035971</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>64750</v>
@@ -4613,9 +4703,11 @@
         <v>267.7599611035971</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>64700</v>
+      </c>
       <c r="J106" t="n">
         <v>64250</v>
       </c>
@@ -4652,7 +4744,7 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>64600</v>
@@ -4693,7 +4785,7 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>64650</v>
@@ -4734,7 +4826,7 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>64650</v>
@@ -4775,7 +4867,7 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>64750</v>
@@ -4816,7 +4908,7 @@
         <v>295.7592611035971</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>64750</v>
@@ -4857,7 +4949,7 @@
         <v>303.8767611035971</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>64800</v>
@@ -4898,7 +4990,7 @@
         <v>472.0695577959051</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>64950</v>
@@ -4939,7 +5031,7 @@
         <v>472.0695577959051</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>65000</v>
@@ -4980,7 +5072,7 @@
         <v>470.6713577959051</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>65000</v>
@@ -5021,7 +5113,7 @@
         <v>465.4792577959051</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>64750</v>
@@ -5062,7 +5154,7 @@
         <v>517.3119577959052</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>64600</v>
@@ -5103,7 +5195,7 @@
         <v>517.3119577959052</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>65150</v>
@@ -5144,7 +5236,7 @@
         <v>483.6022577959052</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>65150</v>
@@ -5185,7 +5277,7 @@
         <v>511.1021577959052</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>64800</v>
@@ -5226,9 +5318,11 @@
         <v>511.1021577959052</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>65200</v>
+      </c>
       <c r="J121" t="n">
         <v>64250</v>
       </c>
@@ -5265,9 +5359,11 @@
         <v>508.7525577959052</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>65200</v>
+      </c>
       <c r="J122" t="n">
         <v>64250</v>
       </c>
@@ -5304,9 +5400,11 @@
         <v>509.6635577959052</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>65000</v>
+      </c>
       <c r="J123" t="n">
         <v>64250</v>
       </c>
@@ -5343,9 +5441,11 @@
         <v>495.3665577959052</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>65300</v>
+      </c>
       <c r="J124" t="n">
         <v>64250</v>
       </c>
@@ -5382,9 +5482,11 @@
         <v>495.3265577959052</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>65100</v>
+      </c>
       <c r="J125" t="n">
         <v>64250</v>
       </c>
@@ -5421,9 +5523,11 @@
         <v>561.3265577959052</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>65050</v>
+      </c>
       <c r="J126" t="n">
         <v>64250</v>
       </c>
@@ -5460,9 +5564,11 @@
         <v>560.7642577959051</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>65100</v>
+      </c>
       <c r="J127" t="n">
         <v>64250</v>
       </c>
@@ -5499,9 +5605,11 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>65050</v>
+      </c>
       <c r="J128" t="n">
         <v>64250</v>
       </c>
@@ -5538,9 +5646,11 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>65300</v>
+      </c>
       <c r="J129" t="n">
         <v>64250</v>
       </c>
@@ -5577,9 +5687,11 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>65300</v>
+      </c>
       <c r="J130" t="n">
         <v>64250</v>
       </c>
@@ -5616,9 +5728,11 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>65300</v>
+      </c>
       <c r="J131" t="n">
         <v>64250</v>
       </c>
@@ -5655,9 +5769,11 @@
         <v>569.7606739289421</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>65300</v>
+      </c>
       <c r="J132" t="n">
         <v>64250</v>
       </c>
@@ -5694,9 +5810,11 @@
         <v>569.7933739289421</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>65500</v>
+      </c>
       <c r="J133" t="n">
         <v>64250</v>
       </c>
@@ -5733,9 +5851,11 @@
         <v>581.6483653423151</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>65550</v>
+      </c>
       <c r="J134" t="n">
         <v>64250</v>
       </c>
@@ -5772,9 +5892,11 @@
         <v>597.7109739289421</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>65650</v>
+      </c>
       <c r="J135" t="n">
         <v>64250</v>
       </c>
@@ -6318,11 +6440,9 @@
         <v>589.9201739289421</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>66400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>64250</v>
       </c>
@@ -6437,7 +6557,7 @@
         <v>650.2820631504981</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>66800</v>
@@ -6478,7 +6598,7 @@
         <v>619.279063150498</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>66900</v>
@@ -6519,11 +6639,9 @@
         <v>611.413779255367</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>66550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>64250</v>
       </c>
@@ -6560,7 +6678,7 @@
         <v>611.393779255367</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>66400</v>
@@ -6601,9 +6719,11 @@
         <v>633.863279255367</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>65950</v>
+      </c>
       <c r="J156" t="n">
         <v>64250</v>
       </c>
@@ -6640,9 +6760,11 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>66050</v>
+      </c>
       <c r="J157" t="n">
         <v>64250</v>
       </c>
@@ -6679,9 +6801,11 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>66000</v>
+      </c>
       <c r="J158" t="n">
         <v>64250</v>
       </c>
@@ -6718,9 +6842,11 @@
         <v>640.5832792553671</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>66000</v>
+      </c>
       <c r="J159" t="n">
         <v>64250</v>
       </c>
@@ -6757,7 +6883,7 @@
         <v>640.5832792553671</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>66050</v>
@@ -6798,7 +6924,7 @@
         <v>640.8181402621281</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>66050</v>
@@ -6839,11 +6965,9 @@
         <v>639.7930402621281</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>66550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>64250</v>
       </c>
@@ -7114,7 +7238,7 @@
         <v>636.1023402621281</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>66050</v>
@@ -7155,11 +7279,9 @@
         <v>663.0093402621281</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>64250</v>
       </c>
@@ -7235,9 +7357,11 @@
         <v>696.6146661603311</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>66800</v>
+      </c>
       <c r="J172" t="n">
         <v>64250</v>
       </c>
@@ -7274,9 +7398,11 @@
         <v>697.6436661603311</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>66700</v>
+      </c>
       <c r="J173" t="n">
         <v>64250</v>
       </c>
@@ -7547,9 +7673,11 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>67000</v>
+      </c>
       <c r="J180" t="n">
         <v>64250</v>
       </c>
@@ -7586,9 +7714,11 @@
         <v>667.0734661603312</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>67000</v>
+      </c>
       <c r="J181" t="n">
         <v>64250</v>
       </c>
@@ -7625,9 +7755,11 @@
         <v>661.2958629489802</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>66400</v>
+      </c>
       <c r="J182" t="n">
         <v>64250</v>
       </c>
@@ -7664,9 +7796,11 @@
         <v>654.8163629489802</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>66350</v>
+      </c>
       <c r="J183" t="n">
         <v>64250</v>
       </c>
@@ -7859,9 +7993,11 @@
         <v>653.1295629489803</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>65950</v>
+      </c>
       <c r="J188" t="n">
         <v>64250</v>
       </c>
@@ -7898,9 +8034,11 @@
         <v>637.1207629489803</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>66600</v>
+      </c>
       <c r="J189" t="n">
         <v>64250</v>
       </c>
@@ -8327,7 +8465,7 @@
         <v>622.6875656476302</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
@@ -8366,7 +8504,7 @@
         <v>617.6917656476302</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
@@ -8405,7 +8543,7 @@
         <v>620.8877656476302</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
@@ -8444,7 +8582,7 @@
         <v>625.7634656476303</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
@@ -8483,7 +8621,7 @@
         <v>625.7634656476303</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8522,7 +8660,7 @@
         <v>625.7634656476303</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
@@ -9302,7 +9440,7 @@
         <v>985.7163713319982</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9419,7 +9557,7 @@
         <v>998.8736713319981</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
@@ -9458,7 +9596,7 @@
         <v>998.8736713319981</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
@@ -9497,7 +9635,7 @@
         <v>1000.772482421962</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
@@ -9536,7 +9674,7 @@
         <v>984.7529824219622</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
@@ -9575,7 +9713,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
@@ -9614,7 +9752,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
@@ -11135,7 +11273,7 @@
         <v>1694.718725855564</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
@@ -11213,7 +11351,7 @@
         <v>1685.718725855564</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
@@ -11252,7 +11390,7 @@
         <v>1701.718725855564</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
@@ -11291,7 +11429,7 @@
         <v>1696.855225855564</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
@@ -11330,7 +11468,7 @@
         <v>1700.274025855564</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
@@ -11369,7 +11507,7 @@
         <v>1820.621892423171</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
@@ -11408,7 +11546,7 @@
         <v>1805.621892423171</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
@@ -11447,7 +11585,7 @@
         <v>1805.621892423171</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
@@ -11525,7 +11663,7 @@
         <v>1795.653492423171</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
@@ -11564,7 +11702,7 @@
         <v>1796.534492423171</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -11603,7 +11741,7 @@
         <v>1793.264492423171</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
@@ -11681,7 +11819,7 @@
         <v>1817.928392423171</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
@@ -11720,7 +11858,7 @@
         <v>1824.033692423171</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
@@ -11759,7 +11897,7 @@
         <v>1816.811492423171</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
@@ -11798,7 +11936,7 @@
         <v>1826.811492423171</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
@@ -11837,7 +11975,7 @@
         <v>1825.811492423171</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
@@ -11876,7 +12014,7 @@
         <v>1825.811492423171</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
@@ -11915,7 +12053,7 @@
         <v>1814.130292423171</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
@@ -11954,7 +12092,7 @@
         <v>1814.130292423171</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
@@ -11993,7 +12131,7 @@
         <v>1817.440292423171</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
@@ -12032,7 +12170,7 @@
         <v>1824.405892423171</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
@@ -12071,7 +12209,7 @@
         <v>1790.402092423171</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
@@ -12110,7 +12248,7 @@
         <v>1782.582092423171</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
@@ -12149,7 +12287,7 @@
         <v>1783.572092423171</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -12188,7 +12326,7 @@
         <v>1770.817092423171</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
@@ -12227,7 +12365,7 @@
         <v>1862.465892423171</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
@@ -12266,7 +12404,7 @@
         <v>1862.504592423171</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
@@ -12305,7 +12443,7 @@
         <v>1862.504592423171</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
@@ -12344,7 +12482,7 @@
         <v>1861.516692423171</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
@@ -12383,7 +12521,7 @@
         <v>2054.125792423171</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
@@ -12539,7 +12677,7 @@
         <v>2045.997592423171</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
@@ -12578,7 +12716,7 @@
         <v>2110.063492423171</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
@@ -12617,7 +12755,7 @@
         <v>2110.063492423171</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
@@ -12656,7 +12794,7 @@
         <v>2110.063492423171</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
@@ -12695,7 +12833,7 @@
         <v>2110.063492423171</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
@@ -12734,7 +12872,7 @@
         <v>2110.063492423171</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
@@ -12773,7 +12911,7 @@
         <v>2102.563492423171</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
@@ -12812,7 +12950,7 @@
         <v>2103.563492423171</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
@@ -12851,7 +12989,7 @@
         <v>2113.552088914399</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
@@ -12890,7 +13028,7 @@
         <v>2113.552088914399</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
@@ -12929,7 +13067,7 @@
         <v>2120.06819962088</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
@@ -13163,7 +13301,7 @@
         <v>2124.06819962088</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
@@ -13171,15 +13309,13 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
-        <v>1.054922178988327</v>
-      </c>
-      <c r="M324" t="n">
-        <v>1.002336448598131</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -13207,8 +13343,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13240,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13273,8 +13421,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13306,8 +13460,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13336,11 +13496,17 @@
         <v>2132.283399620881</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13369,11 +13535,17 @@
         <v>2148.357399620881</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13405,8 +13577,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13438,8 +13616,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13471,8 +13655,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13504,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13537,8 +13733,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13570,8 +13772,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13603,8 +13811,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13636,8 +13850,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13666,15 +13886,23 @@
         <v>2300.626099620881</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+        <v>1.065038910505837</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1.002336448598131</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13699,7 +13927,7 @@
         <v>2271.683499620881</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13732,7 +13960,7 @@
         <v>2318.580199620881</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13765,7 +13993,7 @@
         <v>2297.701699620881</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13798,7 +14026,7 @@
         <v>2295.570999620881</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13831,7 +14059,7 @@
         <v>2301.382699620881</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13864,7 +14092,7 @@
         <v>2301.382699620881</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13897,7 +14125,7 @@
         <v>2314.382699620881</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13930,7 +14158,7 @@
         <v>2321.175599620881</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13963,7 +14191,7 @@
         <v>2268.643599620881</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13996,7 +14224,7 @@
         <v>2279.916999620881</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -14029,7 +14257,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14062,7 +14290,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14095,7 +14323,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14128,7 +14356,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14161,7 +14389,7 @@
         <v>2244.06549962088</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14194,7 +14422,7 @@
         <v>2254.06549962088</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14227,7 +14455,7 @@
         <v>2254.06549962088</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14260,7 +14488,7 @@
         <v>2266.06549962088</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14293,7 +14521,7 @@
         <v>2229.06549962088</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14326,7 +14554,7 @@
         <v>2271.06549962088</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14359,7 +14587,7 @@
         <v>2277.215499620881</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14392,7 +14620,7 @@
         <v>2277.215499620881</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14425,7 +14653,7 @@
         <v>2276.755499620881</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14458,7 +14686,7 @@
         <v>2277.755499620881</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14491,7 +14719,7 @@
         <v>2251.00609962088</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14524,7 +14752,7 @@
         <v>2258.00609962088</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14557,7 +14785,7 @@
         <v>2258.00609962088</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14590,7 +14818,7 @@
         <v>2263.00609962088</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14623,7 +14851,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14656,7 +14884,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14689,7 +14917,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14722,7 +14950,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14755,7 +14983,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14788,7 +15016,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14821,7 +15049,7 @@
         <v>2314.512699620881</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14854,7 +15082,7 @@
         <v>2335.512699620881</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14887,7 +15115,7 @@
         <v>2362.522699620881</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14920,7 +15148,7 @@
         <v>2389.532699620881</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14953,7 +15181,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14986,7 +15214,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15019,7 +15247,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15052,7 +15280,7 @@
         <v>2354.110271955175</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15085,7 +15313,7 @@
         <v>2373.735571955175</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15118,7 +15346,7 @@
         <v>2362.938171955175</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15151,7 +15379,7 @@
         <v>2376.848171955175</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15184,7 +15412,7 @@
         <v>2380.980171955175</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15217,7 +15445,7 @@
         <v>2396.848171955175</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15250,7 +15478,7 @@
         <v>2406.848171955175</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15283,7 +15511,7 @@
         <v>2457.622271955175</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15316,7 +15544,7 @@
         <v>2439.119171955175</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15349,7 +15577,7 @@
         <v>2444.486766797581</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15382,7 +15610,7 @@
         <v>2426.800666797581</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15415,7 +15643,7 @@
         <v>2426.800666797581</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15448,7 +15676,7 @@
         <v>2431.604073101305</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15481,7 +15709,7 @@
         <v>2431.604073101305</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15514,7 +15742,7 @@
         <v>2456.007817800446</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15547,7 +15775,7 @@
         <v>2453.036817800446</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15580,7 +15808,7 @@
         <v>2482.828117800445</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15613,7 +15841,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15646,7 +15874,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15679,7 +15907,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15712,7 +15940,7 @@
         <v>2502.665351611334</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15745,7 +15973,7 @@
         <v>2509.824327144762</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15778,7 +16006,7 @@
         <v>2544.914551611334</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15811,7 +16039,7 @@
         <v>2546.833951611335</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15844,7 +16072,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15877,7 +16105,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15910,7 +16138,7 @@
         <v>2547.435251611334</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15943,7 +16171,7 @@
         <v>2547.466814111334</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15976,7 +16204,7 @@
         <v>2543.478014111334</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16009,7 +16237,7 @@
         <v>2543.509576611334</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16042,7 +16270,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16075,7 +16303,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16108,7 +16336,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16141,7 +16369,7 @@
         <v>2506.214676611334</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16174,7 +16402,7 @@
         <v>2525.004676611334</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16207,7 +16435,7 @@
         <v>2584.120687683016</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16240,7 +16468,7 @@
         <v>2581.858387683016</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16273,7 +16501,7 @@
         <v>2652.128076611334</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16306,7 +16534,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16339,7 +16567,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16372,7 +16600,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16405,7 +16633,7 @@
         <v>2967.954976611334</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16438,7 +16666,7 @@
         <v>2966.289976611334</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16471,7 +16699,7 @@
         <v>2903.955276611334</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16504,7 +16732,7 @@
         <v>2881.518076611334</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16537,7 +16765,7 @@
         <v>2892.518076611334</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16570,7 +16798,7 @@
         <v>2881.080876611335</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16603,7 +16831,7 @@
         <v>2880.080876611335</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16636,7 +16864,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16669,7 +16897,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16702,7 +16930,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16735,7 +16963,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16768,7 +16996,7 @@
         <v>2950.080476611335</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16801,7 +17029,7 @@
         <v>2967.179276611335</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16834,7 +17062,7 @@
         <v>2984.279476611335</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16867,7 +17095,7 @@
         <v>2953.613076611335</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16900,7 +17128,7 @@
         <v>2944.241976611335</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16933,7 +17161,7 @@
         <v>2913.383976611335</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16966,7 +17194,7 @@
         <v>2943.831776611335</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16999,7 +17227,7 @@
         <v>2941.099376611335</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17032,7 +17260,7 @@
         <v>2919.705076611335</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17065,7 +17293,7 @@
         <v>2925.444576611335</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17098,7 +17326,7 @@
         <v>2915.821276611335</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17131,7 +17359,7 @@
         <v>2915.197276611335</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17164,7 +17392,7 @@
         <v>2915.207276611335</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17197,7 +17425,7 @@
         <v>2912.061676611335</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17230,7 +17458,7 @@
         <v>2904.515276611335</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17263,7 +17491,7 @@
         <v>2910.009176611335</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17296,7 +17524,7 @@
         <v>2906.685176611335</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17329,7 +17557,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17362,7 +17590,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17395,7 +17623,7 @@
         <v>2927.782376611335</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17428,7 +17656,7 @@
         <v>2929.782376611335</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17461,7 +17689,7 @@
         <v>2925.432776611335</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17494,7 +17722,7 @@
         <v>2923.918076611335</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17527,7 +17755,7 @@
         <v>2950.977676611335</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17560,7 +17788,7 @@
         <v>2948.410676611335</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17593,7 +17821,7 @@
         <v>2938.410676611335</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17626,7 +17854,7 @@
         <v>2944.77057037904</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17659,7 +17887,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17692,7 +17920,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17725,7 +17953,7 @@
         <v>2943.10057037904</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17758,7 +17986,7 @@
         <v>2945.86667037904</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17791,7 +18019,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17956,7 +18184,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17989,7 +18217,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18022,7 +18250,7 @@
         <v>2830.54617037904</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18121,7 +18349,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18154,7 +18382,7 @@
         <v>2811.07427037904</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18187,7 +18415,7 @@
         <v>2800.86857037904</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18220,7 +18448,7 @@
         <v>2864.50567037904</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18253,7 +18481,7 @@
         <v>2884.15467037904</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18286,7 +18514,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18319,7 +18547,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18352,7 +18580,7 @@
         <v>2909.863270379039</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18363,6 +18591,6 @@
       <c r="M481" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XMR.xlsx
+++ b/BackTest/2019-10-17 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>403.0100526835889</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>64250</v>
       </c>
@@ -685,11 +683,9 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>64250</v>
       </c>
@@ -726,11 +722,9 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>64250</v>
       </c>
@@ -767,11 +761,9 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>64250</v>
       </c>
@@ -808,11 +800,9 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>64250</v>
       </c>
@@ -849,11 +839,9 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>64250</v>
       </c>
@@ -890,11 +878,9 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>64250</v>
       </c>
@@ -931,11 +917,9 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>64250</v>
       </c>
@@ -1054,11 +1038,9 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>64250</v>
       </c>
@@ -1751,11 +1733,9 @@
         <v>488.502057795905</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>64250</v>
       </c>
@@ -1792,11 +1772,9 @@
         <v>488.502057795905</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>64250</v>
       </c>
@@ -1833,11 +1811,9 @@
         <v>488.502057795905</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>64250</v>
       </c>
@@ -1874,11 +1850,9 @@
         <v>488.502057795905</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>64250</v>
       </c>
@@ -1915,11 +1889,9 @@
         <v>487.554157795905</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>64250</v>
       </c>
@@ -1956,11 +1928,9 @@
         <v>477.414657795905</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>64250</v>
       </c>
@@ -2530,11 +2500,9 @@
         <v>545.107857795905</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>64250</v>
       </c>
@@ -2571,11 +2539,9 @@
         <v>519.284157795905</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>64900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>64250</v>
       </c>
@@ -2612,11 +2578,9 @@
         <v>504.284157795905</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>64250</v>
       </c>
@@ -2694,11 +2658,9 @@
         <v>503.418157795905</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>64900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>64250</v>
       </c>
@@ -2735,11 +2697,9 @@
         <v>503.418157795905</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>64250</v>
       </c>
@@ -2776,11 +2736,9 @@
         <v>503.418157795905</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>64250</v>
       </c>
@@ -2817,11 +2775,9 @@
         <v>491.963157795905</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>64250</v>
       </c>
@@ -2858,11 +2814,9 @@
         <v>489.963157795905</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>64250</v>
       </c>
@@ -4129,11 +4083,9 @@
         <v>293.0880577959051</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>64250</v>
       </c>
@@ -4375,11 +4327,9 @@
         <v>313.6136611035971</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>64250</v>
       </c>
@@ -4457,11 +4407,9 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>64950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>64250</v>
       </c>
@@ -4498,11 +4446,9 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>64250</v>
       </c>
@@ -4539,11 +4485,9 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>64250</v>
       </c>
@@ -4580,11 +4524,9 @@
         <v>393.2221611035971</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>64250</v>
       </c>
@@ -4621,11 +4563,9 @@
         <v>370.9314611035971</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>64250</v>
       </c>
@@ -4662,11 +4602,9 @@
         <v>344.4399611035971</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>64250</v>
       </c>
@@ -4703,11 +4641,9 @@
         <v>267.7599611035971</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>64250</v>
       </c>
@@ -4744,11 +4680,9 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>64250</v>
       </c>
@@ -4867,11 +4801,9 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>64250</v>
       </c>
@@ -4908,11 +4840,9 @@
         <v>295.7592611035971</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>64250</v>
       </c>
@@ -4949,11 +4879,9 @@
         <v>303.8767611035971</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>64250</v>
       </c>
@@ -4990,11 +4918,9 @@
         <v>472.0695577959051</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>64950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>64250</v>
       </c>
@@ -5031,11 +4957,9 @@
         <v>472.0695577959051</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>64250</v>
       </c>
@@ -5072,11 +4996,9 @@
         <v>470.6713577959051</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>64250</v>
       </c>
@@ -5113,11 +5035,9 @@
         <v>465.4792577959051</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>64250</v>
       </c>
@@ -5154,11 +5074,9 @@
         <v>517.3119577959052</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>64250</v>
       </c>
@@ -5195,11 +5113,9 @@
         <v>517.3119577959052</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>64250</v>
       </c>
@@ -5236,11 +5152,9 @@
         <v>483.6022577959052</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>64250</v>
       </c>
@@ -5277,11 +5191,9 @@
         <v>511.1021577959052</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>64250</v>
       </c>
@@ -5318,11 +5230,9 @@
         <v>511.1021577959052</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>64250</v>
       </c>
@@ -5359,11 +5269,9 @@
         <v>508.7525577959052</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>64250</v>
       </c>
@@ -5400,11 +5308,9 @@
         <v>509.6635577959052</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>64250</v>
       </c>
@@ -5441,11 +5347,9 @@
         <v>495.3665577959052</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>65300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>64250</v>
       </c>
@@ -5482,11 +5386,9 @@
         <v>495.3265577959052</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>64250</v>
       </c>
@@ -5523,11 +5425,9 @@
         <v>561.3265577959052</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>65050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>64250</v>
       </c>
@@ -5564,11 +5464,9 @@
         <v>560.7642577959051</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>64250</v>
       </c>
@@ -5605,11 +5503,9 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>65050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>64250</v>
       </c>
@@ -5646,11 +5542,9 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>65300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>64250</v>
       </c>
@@ -5687,11 +5581,9 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>65300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>64250</v>
       </c>
@@ -5728,11 +5620,9 @@
         <v>567.0673496795191</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>65300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>64250</v>
       </c>
@@ -5769,11 +5659,9 @@
         <v>569.7606739289421</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>65300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>64250</v>
       </c>
@@ -5810,11 +5698,9 @@
         <v>569.7933739289421</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>65500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>64250</v>
       </c>
@@ -5851,11 +5737,9 @@
         <v>581.6483653423151</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>65550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>64250</v>
       </c>
@@ -5892,11 +5776,9 @@
         <v>597.7109739289421</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>65650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>64250</v>
       </c>
@@ -6284,7 +6166,7 @@
         <v>573.333373928942</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6292,11 +6174,11 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>1.022237354085603</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -6323,17 +6205,11 @@
         <v>580.833373928942</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6557,19 +6403,11 @@
         <v>650.2820631504981</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J152" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6598,19 +6436,11 @@
         <v>619.279063150498</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J153" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6639,17 +6469,11 @@
         <v>611.413779255367</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6678,19 +6502,11 @@
         <v>611.393779255367</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J155" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6719,19 +6535,11 @@
         <v>633.863279255367</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J156" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6760,19 +6568,11 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J157" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6801,19 +6601,11 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>66000</v>
-      </c>
-      <c r="J158" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6842,19 +6634,11 @@
         <v>640.5832792553671</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>66000</v>
-      </c>
-      <c r="J159" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6883,19 +6667,11 @@
         <v>640.5832792553671</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J160" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6924,19 +6700,11 @@
         <v>640.8181402621281</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J161" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6968,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -7007,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -7046,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7082,17 +6832,11 @@
         <v>639.9823402621281</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7121,17 +6865,11 @@
         <v>661.8897402621282</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7160,17 +6898,11 @@
         <v>639.7468402621281</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7199,17 +6931,11 @@
         <v>635.2073402621281</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7238,19 +6964,11 @@
         <v>636.1023402621281</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J169" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7279,17 +6997,11 @@
         <v>663.0093402621281</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7318,17 +7030,11 @@
         <v>696.8465661603311</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7357,19 +7063,11 @@
         <v>696.6146661603311</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J172" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7398,19 +7096,11 @@
         <v>697.6436661603311</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>66700</v>
-      </c>
-      <c r="J173" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7439,17 +7129,11 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7478,17 +7162,11 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7517,17 +7195,11 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7556,17 +7228,11 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7595,17 +7261,11 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7634,17 +7294,11 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7673,19 +7327,11 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J180" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7714,19 +7360,11 @@
         <v>667.0734661603312</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J181" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7755,19 +7393,11 @@
         <v>661.2958629489802</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J182" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7796,19 +7426,11 @@
         <v>654.8163629489802</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>66350</v>
-      </c>
-      <c r="J183" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7837,17 +7459,11 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7876,17 +7492,11 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +7528,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7561,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7993,19 +7591,11 @@
         <v>653.1295629489803</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J188" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -8034,19 +7624,11 @@
         <v>637.1207629489803</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>66600</v>
-      </c>
-      <c r="J189" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8078,14 +7660,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8117,14 +7693,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8156,14 +7726,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8195,14 +7759,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8234,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8273,14 +7825,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8312,14 +7858,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8351,14 +7891,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8390,14 +7924,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8429,14 +7957,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8468,14 +7990,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +8023,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8546,14 +8056,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8585,14 +8089,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8624,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8663,14 +8155,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8702,14 +8188,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8741,14 +8221,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8780,14 +8254,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8819,14 +8287,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8858,14 +8320,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8897,14 +8353,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8936,14 +8386,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +8419,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -9014,14 +8452,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -9053,14 +8485,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9092,14 +8518,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +8551,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9167,17 +8581,11 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9206,17 +8614,11 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9245,17 +8647,11 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9287,14 +8683,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9326,14 +8716,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +8749,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9404,14 +8782,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9443,14 +8815,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9482,14 +8848,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9521,14 +8881,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9560,14 +8914,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9599,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9635,17 +8977,11 @@
         <v>1000.772482421962</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9674,17 +9010,11 @@
         <v>984.7529824219622</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9713,17 +9043,11 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9755,14 +9079,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9791,17 +9109,11 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9830,17 +9142,11 @@
         <v>1106.465482421962</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9869,17 +9175,11 @@
         <v>1098.976882421962</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9908,17 +9208,11 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9947,17 +9241,11 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9989,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -10028,14 +9310,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -10067,14 +9343,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10106,14 +9376,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10145,14 +9409,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10184,14 +9442,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10223,14 +9475,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10262,14 +9508,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10301,14 +9541,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10340,14 +9574,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10379,14 +9607,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10418,14 +9640,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10457,14 +9673,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10496,14 +9706,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10535,14 +9739,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10574,14 +9772,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10613,14 +9805,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10652,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10691,14 +9871,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10730,14 +9904,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10769,14 +9937,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10808,14 +9970,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10847,14 +10003,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10886,14 +10036,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10925,14 +10069,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10964,14 +10102,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -11003,14 +10135,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -11042,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11081,14 +10201,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11120,14 +10234,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11159,14 +10267,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11198,14 +10300,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11237,14 +10333,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11276,14 +10366,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11315,14 +10399,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11354,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11393,14 +10465,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11432,14 +10498,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11471,14 +10531,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11510,14 +10564,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11549,14 +10597,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11588,14 +10630,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11627,14 +10663,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11666,14 +10696,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11705,14 +10729,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11744,14 +10762,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11783,14 +10795,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11822,14 +10828,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11861,14 +10861,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11900,14 +10894,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11939,14 +10927,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +10960,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -12017,14 +10993,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -12056,14 +11026,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12095,14 +11059,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12134,14 +11092,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12173,14 +11125,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12212,14 +11158,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12251,14 +11191,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12290,14 +11224,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12329,14 +11257,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12368,14 +11290,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12407,14 +11323,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12446,14 +11356,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12485,14 +11389,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12524,14 +11422,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12563,14 +11455,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12602,14 +11488,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12641,14 +11521,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12680,14 +11554,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12719,14 +11587,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12758,14 +11620,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12797,14 +11653,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12836,14 +11686,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12875,14 +11719,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12914,14 +11752,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12953,14 +11785,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12992,14 +11818,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -13031,14 +11851,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -13070,14 +11884,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13109,14 +11917,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13148,14 +11950,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13187,14 +11983,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13226,14 +12016,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13265,14 +12049,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13304,14 +12082,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13343,14 +12115,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13382,14 +12148,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13421,14 +12181,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13460,14 +12214,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13499,14 +12247,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13538,14 +12280,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13577,14 +12313,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13616,14 +12346,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13655,14 +12379,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13694,14 +12412,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13733,14 +12445,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13772,14 +12478,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13811,14 +12511,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13850,14 +12544,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13886,23 +12574,15 @@
         <v>2300.626099620881</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>64250</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
-        <v>1.065038910505837</v>
-      </c>
-      <c r="M339" t="n">
-        <v>1.002336448598131</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13927,7 +12607,7 @@
         <v>2271.683499620881</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13960,7 +12640,7 @@
         <v>2318.580199620881</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13993,7 +12673,7 @@
         <v>2297.701699620881</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -14026,7 +12706,7 @@
         <v>2295.570999620881</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -14059,7 +12739,7 @@
         <v>2301.382699620881</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -14092,7 +12772,7 @@
         <v>2301.382699620881</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -14125,7 +12805,7 @@
         <v>2314.382699620881</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -14158,7 +12838,7 @@
         <v>2321.175599620881</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -14191,7 +12871,7 @@
         <v>2268.643599620881</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -14224,7 +12904,7 @@
         <v>2279.916999620881</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -14257,7 +12937,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -14290,7 +12970,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14323,7 +13003,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14356,7 +13036,7 @@
         <v>2244.305399620881</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14389,7 +13069,7 @@
         <v>2244.06549962088</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14422,7 +13102,7 @@
         <v>2254.06549962088</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14455,7 +13135,7 @@
         <v>2254.06549962088</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14488,7 +13168,7 @@
         <v>2266.06549962088</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14521,7 +13201,7 @@
         <v>2229.06549962088</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14554,7 +13234,7 @@
         <v>2271.06549962088</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14587,7 +13267,7 @@
         <v>2277.215499620881</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14620,7 +13300,7 @@
         <v>2277.215499620881</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14653,7 +13333,7 @@
         <v>2276.755499620881</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14686,7 +13366,7 @@
         <v>2277.755499620881</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14719,7 +13399,7 @@
         <v>2251.00609962088</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14752,7 +13432,7 @@
         <v>2258.00609962088</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14785,7 +13465,7 @@
         <v>2258.00609962088</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14818,7 +13498,7 @@
         <v>2263.00609962088</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14851,7 +13531,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14884,7 +13564,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14917,7 +13597,7 @@
         <v>2270.18509962088</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14950,7 +13630,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14983,7 +13663,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -15016,7 +13696,7 @@
         <v>2298.18509962088</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15049,7 +13729,7 @@
         <v>2314.512699620881</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -15082,7 +13762,7 @@
         <v>2335.512699620881</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -15115,7 +13795,7 @@
         <v>2362.522699620881</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15148,7 +13828,7 @@
         <v>2389.532699620881</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15181,7 +13861,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15214,7 +13894,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15247,7 +13927,7 @@
         <v>2336.307071955175</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15280,7 +13960,7 @@
         <v>2354.110271955175</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15313,7 +13993,7 @@
         <v>2373.735571955175</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15346,7 +14026,7 @@
         <v>2362.938171955175</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15379,7 +14059,7 @@
         <v>2376.848171955175</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15412,7 +14092,7 @@
         <v>2380.980171955175</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15445,7 +14125,7 @@
         <v>2396.848171955175</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15478,7 +14158,7 @@
         <v>2406.848171955175</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15511,7 +14191,7 @@
         <v>2457.622271955175</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15544,7 +14224,7 @@
         <v>2439.119171955175</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15577,7 +14257,7 @@
         <v>2444.486766797581</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15610,7 +14290,7 @@
         <v>2426.800666797581</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15643,7 +14323,7 @@
         <v>2426.800666797581</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15676,7 +14356,7 @@
         <v>2431.604073101305</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15709,7 +14389,7 @@
         <v>2431.604073101305</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15742,7 +14422,7 @@
         <v>2456.007817800446</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15775,7 +14455,7 @@
         <v>2453.036817800446</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15808,7 +14488,7 @@
         <v>2482.828117800445</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15841,7 +14521,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15874,7 +14554,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15907,7 +14587,7 @@
         <v>2442.828117800445</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15940,7 +14620,7 @@
         <v>2502.665351611334</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15973,7 +14653,7 @@
         <v>2509.824327144762</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16006,7 +14686,7 @@
         <v>2544.914551611334</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16039,7 +14719,7 @@
         <v>2546.833951611335</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16072,7 +14752,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16105,7 +14785,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16138,7 +14818,7 @@
         <v>2547.435251611334</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16171,7 +14851,7 @@
         <v>2547.466814111334</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16204,7 +14884,7 @@
         <v>2543.478014111334</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16237,7 +14917,7 @@
         <v>2543.509576611334</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16270,7 +14950,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16303,7 +14983,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16336,7 +15016,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16369,7 +15049,7 @@
         <v>2506.214676611334</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16402,7 +15082,7 @@
         <v>2525.004676611334</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16435,7 +15115,7 @@
         <v>2584.120687683016</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16468,7 +15148,7 @@
         <v>2581.858387683016</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16501,7 +15181,7 @@
         <v>2652.128076611334</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16534,7 +15214,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16567,7 +15247,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16600,7 +15280,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16633,7 +15313,7 @@
         <v>2967.954976611334</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16666,7 +15346,7 @@
         <v>2966.289976611334</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16699,7 +15379,7 @@
         <v>2903.955276611334</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16732,7 +15412,7 @@
         <v>2881.518076611334</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16765,7 +15445,7 @@
         <v>2892.518076611334</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16798,7 +15478,7 @@
         <v>2881.080876611335</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16831,7 +15511,7 @@
         <v>2880.080876611335</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16864,7 +15544,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16897,7 +15577,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16930,7 +15610,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16963,7 +15643,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16996,7 +15676,7 @@
         <v>2950.080476611335</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17029,7 +15709,7 @@
         <v>2967.179276611335</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17062,7 +15742,7 @@
         <v>2984.279476611335</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17095,7 +15775,7 @@
         <v>2953.613076611335</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17161,7 +15841,7 @@
         <v>2913.383976611335</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17194,7 +15874,7 @@
         <v>2943.831776611335</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17227,7 +15907,7 @@
         <v>2941.099376611335</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17260,7 +15940,7 @@
         <v>2919.705076611335</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17293,7 +15973,7 @@
         <v>2925.444576611335</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17326,7 +16006,7 @@
         <v>2915.821276611335</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17359,7 +16039,7 @@
         <v>2915.197276611335</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17392,7 +16072,7 @@
         <v>2915.207276611335</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17425,7 +16105,7 @@
         <v>2912.061676611335</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17458,7 +16138,7 @@
         <v>2904.515276611335</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17491,7 +16171,7 @@
         <v>2910.009176611335</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17524,7 +16204,7 @@
         <v>2906.685176611335</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17557,7 +16237,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17590,7 +16270,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17623,7 +16303,7 @@
         <v>2927.782376611335</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17656,7 +16336,7 @@
         <v>2929.782376611335</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17689,7 +16369,7 @@
         <v>2925.432776611335</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17722,7 +16402,7 @@
         <v>2923.918076611335</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17755,7 +16435,7 @@
         <v>2950.977676611335</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17788,7 +16468,7 @@
         <v>2948.410676611335</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17821,7 +16501,7 @@
         <v>2938.410676611335</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18349,7 +17029,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18382,7 +17062,7 @@
         <v>2811.07427037904</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18415,7 +17095,7 @@
         <v>2800.86857037904</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18448,7 +17128,7 @@
         <v>2864.50567037904</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18481,7 +17161,7 @@
         <v>2884.15467037904</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18514,7 +17194,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18547,7 +17227,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18580,7 +17260,7 @@
         <v>2909.863270379039</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18591,6 +17271,6 @@
       <c r="M481" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XMR.xlsx
+++ b/BackTest/2019-10-17 BackTest XMR.xlsx
@@ -644,9 +644,11 @@
         <v>403.0100526835889</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>64650</v>
+      </c>
       <c r="J7" t="n">
         <v>64250</v>
       </c>
@@ -683,9 +685,11 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>64600</v>
+      </c>
       <c r="J8" t="n">
         <v>64250</v>
       </c>
@@ -722,9 +726,11 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64550</v>
+      </c>
       <c r="J9" t="n">
         <v>64250</v>
       </c>
@@ -761,9 +767,11 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64550</v>
+      </c>
       <c r="J10" t="n">
         <v>64250</v>
       </c>
@@ -800,9 +808,11 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64550</v>
+      </c>
       <c r="J11" t="n">
         <v>64250</v>
       </c>
@@ -839,9 +849,11 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>64550</v>
+      </c>
       <c r="J12" t="n">
         <v>64250</v>
       </c>
@@ -878,9 +890,11 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>64550</v>
+      </c>
       <c r="J13" t="n">
         <v>64250</v>
       </c>
@@ -917,9 +931,11 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64350</v>
+      </c>
       <c r="J14" t="n">
         <v>64250</v>
       </c>
@@ -997,11 +1013,9 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>64250</v>
       </c>
@@ -1077,11 +1091,9 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>64250</v>
       </c>
@@ -1118,11 +1130,9 @@
         <v>369.118852683589</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>64250</v>
       </c>
@@ -1159,11 +1169,9 @@
         <v>368.917252683589</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>64250</v>
       </c>
@@ -1200,11 +1208,9 @@
         <v>368.917252683589</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>64250</v>
       </c>
@@ -1282,11 +1288,9 @@
         <v>369.8052526835889</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>64250</v>
       </c>
@@ -1323,11 +1327,9 @@
         <v>372.7495526835889</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>64250</v>
       </c>
@@ -1364,11 +1366,9 @@
         <v>380.502157795905</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>64250</v>
       </c>
@@ -1405,11 +1405,9 @@
         <v>380.502157795905</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>64250</v>
       </c>
@@ -1446,11 +1444,9 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>64250</v>
       </c>
@@ -1487,11 +1483,9 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>64250</v>
       </c>
@@ -1528,11 +1522,9 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>64250</v>
       </c>
@@ -1569,11 +1561,9 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>64250</v>
       </c>
@@ -1610,11 +1600,9 @@
         <v>442.373757795905</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>64250</v>
       </c>
@@ -1651,11 +1639,9 @@
         <v>487.579057795905</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>64250</v>
       </c>
@@ -1692,11 +1678,9 @@
         <v>487.579057795905</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>64250</v>
       </c>
@@ -1967,11 +1951,9 @@
         <v>475.195057795905</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>64250</v>
       </c>
@@ -2008,11 +1990,9 @@
         <v>475.195057795905</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>64250</v>
       </c>
@@ -2049,11 +2029,9 @@
         <v>475.195057795905</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>64250</v>
       </c>
@@ -2090,11 +2068,9 @@
         <v>475.195057795905</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>64250</v>
       </c>
@@ -2131,11 +2107,9 @@
         <v>475.195057795905</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>64250</v>
       </c>
@@ -2172,11 +2146,9 @@
         <v>495.195057795905</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>64250</v>
       </c>
@@ -2213,11 +2185,9 @@
         <v>553.697657795905</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>64250</v>
       </c>
@@ -2254,11 +2224,9 @@
         <v>550.527657795905</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>64250</v>
       </c>
@@ -2295,11 +2263,9 @@
         <v>552.527657795905</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>64250</v>
       </c>
@@ -2336,11 +2302,9 @@
         <v>522.507857795905</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>64250</v>
       </c>
@@ -2377,11 +2341,9 @@
         <v>522.507857795905</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>64250</v>
       </c>
@@ -2418,11 +2380,9 @@
         <v>545.107857795905</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>64250</v>
       </c>
@@ -2459,11 +2419,9 @@
         <v>545.107857795905</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>64900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>64250</v>
       </c>
@@ -2617,11 +2575,9 @@
         <v>518.418157795905</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>64250</v>
       </c>
@@ -2853,11 +2809,9 @@
         <v>489.963157795905</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>64250</v>
       </c>
@@ -2894,11 +2848,9 @@
         <v>489.963157795905</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>64250</v>
       </c>
@@ -2935,11 +2887,9 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>64250</v>
       </c>
@@ -2976,11 +2926,9 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>64250</v>
       </c>
@@ -3017,11 +2965,9 @@
         <v>412.8720577959051</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>64250</v>
       </c>
@@ -3058,11 +3004,9 @@
         <v>425.998057795905</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>64250</v>
       </c>
@@ -3099,11 +3043,9 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>64250</v>
       </c>
@@ -3140,11 +3082,9 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>64250</v>
       </c>
@@ -3181,11 +3121,9 @@
         <v>462.8368577959051</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>64250</v>
       </c>
@@ -3222,11 +3160,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>64250</v>
       </c>
@@ -3263,11 +3199,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>64250</v>
       </c>
@@ -3304,11 +3238,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>64250</v>
       </c>
@@ -3345,11 +3277,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>64250</v>
       </c>
@@ -3386,11 +3316,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>64250</v>
       </c>
@@ -3427,11 +3355,9 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>64250</v>
       </c>
@@ -3468,11 +3394,9 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>64250</v>
       </c>
@@ -3509,11 +3433,9 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>64250</v>
       </c>
@@ -3550,11 +3472,9 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>64250</v>
       </c>
@@ -3591,11 +3511,9 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>64250</v>
       </c>
@@ -3632,11 +3550,9 @@
         <v>461.752757795905</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>64250</v>
       </c>
@@ -3673,11 +3589,9 @@
         <v>441.402457795905</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>64250</v>
       </c>
@@ -3714,11 +3628,9 @@
         <v>340.0518577959051</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>64250</v>
       </c>
@@ -3755,11 +3667,9 @@
         <v>264.172557795905</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>64250</v>
       </c>
@@ -3796,11 +3706,9 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>64100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>64250</v>
       </c>
@@ -3837,11 +3745,9 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>64250</v>
       </c>
@@ -3878,11 +3784,9 @@
         <v>280.4744577959051</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>64250</v>
       </c>
@@ -3919,11 +3823,9 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>64550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>64250</v>
       </c>
@@ -3960,11 +3862,9 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>64250</v>
       </c>
@@ -4001,11 +3901,9 @@
         <v>292.7234577959051</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>64250</v>
       </c>
@@ -4042,11 +3940,9 @@
         <v>296.7222577959051</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>64250</v>
       </c>
@@ -4122,11 +4018,9 @@
         <v>295.3120577959051</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>64250</v>
       </c>
@@ -4163,11 +4057,9 @@
         <v>294.2736577959051</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>64700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>64250</v>
       </c>
@@ -4204,11 +4096,9 @@
         <v>293.0936577959051</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>64250</v>
       </c>
@@ -4245,11 +4135,9 @@
         <v>294.1936577959051</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>64250</v>
       </c>
@@ -4286,11 +4174,9 @@
         <v>313.6403611035971</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>64250</v>
       </c>
@@ -4366,11 +4252,9 @@
         <v>373.4465611035971</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>64250</v>
       </c>
@@ -4719,11 +4603,9 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>64250</v>
       </c>
@@ -4760,11 +4642,9 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>64650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>64250</v>
       </c>
@@ -6166,7 +6046,7 @@
         <v>573.333373928942</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6174,11 +6054,11 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.022237354085603</v>
+        <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
@@ -6205,11 +6085,17 @@
         <v>580.833373928942</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6127,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +6166,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +6205,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +6244,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6283,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6403,11 +6319,17 @@
         <v>650.2820631504981</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6436,11 +6358,17 @@
         <v>619.279063150498</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +6397,17 @@
         <v>611.413779255367</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6502,11 +6436,17 @@
         <v>611.393779255367</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +6475,17 @@
         <v>633.863279255367</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6568,11 +6514,17 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +6595,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +6751,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +6790,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6826,17 @@
         <v>639.9823402621281</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6865,11 +6865,17 @@
         <v>661.8897402621282</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6898,11 +6904,17 @@
         <v>639.7468402621281</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +6943,17 @@
         <v>635.2073402621281</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +6985,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +7021,17 @@
         <v>663.0093402621281</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +7060,17 @@
         <v>696.8465661603311</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7063,11 +7099,17 @@
         <v>696.6146661603311</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +7138,17 @@
         <v>697.6436661603311</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +7177,17 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +7216,17 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +7255,17 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +7294,17 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +7333,17 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7294,11 +7372,17 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +7411,17 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7360,11 +7450,17 @@
         <v>667.0734661603312</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7489,17 @@
         <v>661.2958629489802</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +7528,17 @@
         <v>654.8163629489802</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7459,11 +7567,17 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7492,11 +7606,17 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +7726,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +7765,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +7843,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +7999,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7858,8 +8038,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +8077,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7924,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7990,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8023,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8056,8 +8272,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +8311,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +8428,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +8467,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +8545,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +8584,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +8662,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8485,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8518,8 +8818,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8551,8 +8857,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +8893,17 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +8932,17 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +8971,17 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +9013,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +9052,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +9091,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +9130,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +9169,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +9208,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8881,8 +9247,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8914,8 +9286,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8947,8 +9325,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +9361,17 @@
         <v>1000.772482421962</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9010,11 +9400,17 @@
         <v>984.7529824219622</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +9439,17 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +9481,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9109,11 +9517,17 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +9556,17 @@
         <v>1106.465482421962</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9175,11 +9595,17 @@
         <v>1098.976882421962</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9208,11 +9634,17 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9673,17 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +9715,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +9754,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9793,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +9832,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +9871,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +9910,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +9949,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +9988,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +10027,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10066,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +10105,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +10144,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9673,8 +10183,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9706,8 +10222,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +10261,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9772,8 +10300,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9805,8 +10339,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +10378,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +10417,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +10456,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +10495,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +10534,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +10573,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +10612,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +10651,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +10690,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +10729,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +10768,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +10807,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +10846,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +10885,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +10924,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +10963,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10366,8 +11002,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10399,8 +11041,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +11080,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +11119,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +11158,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10531,8 +11197,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +11236,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10597,8 +11275,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10630,8 +11314,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10663,8 +11353,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10696,8 +11392,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +11431,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10762,8 +11470,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10795,8 +11509,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10828,8 +11548,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10861,8 +11587,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +11626,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10927,8 +11665,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10960,8 +11704,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10993,8 +11743,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11026,8 +11782,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11059,8 +11821,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11092,8 +11860,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11125,8 +11899,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11158,8 +11938,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11191,8 +11977,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11224,8 +12016,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11257,8 +12055,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11290,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11323,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11356,8 +12172,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11389,8 +12211,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11422,8 +12250,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11455,8 +12289,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +12328,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11521,8 +12367,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +12406,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +12445,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +12484,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11653,8 +12523,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11686,8 +12562,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11719,8 +12601,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11752,8 +12640,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11785,8 +12679,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11818,8 +12718,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11851,8 +12757,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +12796,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +12835,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11950,8 +12874,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11983,8 +12913,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12016,8 +12952,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12049,8 +12991,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12082,8 +13030,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12115,8 +13069,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12148,8 +13108,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +13147,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12214,8 +13186,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12247,8 +13225,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +13264,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +13303,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +13342,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +13381,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +13420,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +13459,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +13498,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +13537,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +13576,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +13615,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +13654,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12643,8 +13693,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12676,8 +13732,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13810,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +13849,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12808,8 +13888,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +13927,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12874,8 +13966,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12907,8 +14005,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12940,8 +14044,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +14083,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13006,8 +14122,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +14161,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13072,8 +14200,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13105,8 +14239,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13138,8 +14278,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13171,8 +14317,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13204,8 +14356,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13237,8 +14395,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13270,8 +14434,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13303,8 +14473,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13336,8 +14512,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13369,8 +14551,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13402,8 +14590,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13435,8 +14629,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13468,8 +14668,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13501,8 +14707,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13534,8 +14746,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13567,8 +14785,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13600,8 +14824,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13633,8 +14863,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13666,8 +14902,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13699,8 +14941,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13732,8 +14980,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13765,8 +15019,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13798,8 +15058,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13831,8 +15097,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13864,8 +15136,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13897,8 +15175,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13930,8 +15214,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13963,8 +15253,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13996,8 +15292,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14029,8 +15331,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14062,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14095,8 +15409,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +15448,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14161,8 +15487,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14194,8 +15526,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14227,8 +15565,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14260,8 +15604,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14293,8 +15643,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14326,8 +15682,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14359,8 +15721,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14392,8 +15760,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14425,8 +15799,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14458,8 +15838,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14491,8 +15877,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14524,8 +15916,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14557,8 +15955,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14590,8 +15994,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14623,8 +16033,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14656,8 +16072,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14686,15 +16108,23 @@
         <v>2544.914551611334</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>64250</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
+        <v>1.089941634241245</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1.002336448598131</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14719,7 +16149,7 @@
         <v>2546.833951611335</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14752,7 +16182,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14785,7 +16215,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14818,7 +16248,7 @@
         <v>2547.435251611334</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14851,7 +16281,7 @@
         <v>2547.466814111334</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14884,7 +16314,7 @@
         <v>2543.478014111334</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14917,7 +16347,7 @@
         <v>2543.509576611334</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14950,7 +16380,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14983,7 +16413,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15016,7 +16446,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15049,7 +16479,7 @@
         <v>2506.214676611334</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15082,7 +16512,7 @@
         <v>2525.004676611334</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15115,7 +16545,7 @@
         <v>2584.120687683016</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15148,7 +16578,7 @@
         <v>2581.858387683016</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15181,7 +16611,7 @@
         <v>2652.128076611334</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15214,7 +16644,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15247,7 +16677,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15280,7 +16710,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15313,7 +16743,7 @@
         <v>2967.954976611334</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15346,7 +16776,7 @@
         <v>2966.289976611334</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15379,7 +16809,7 @@
         <v>2903.955276611334</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15412,7 +16842,7 @@
         <v>2881.518076611334</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15445,7 +16875,7 @@
         <v>2892.518076611334</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15478,7 +16908,7 @@
         <v>2881.080876611335</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15511,7 +16941,7 @@
         <v>2880.080876611335</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15544,7 +16974,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15577,7 +17007,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15610,7 +17040,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15643,7 +17073,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15676,7 +17106,7 @@
         <v>2950.080476611335</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15709,7 +17139,7 @@
         <v>2967.179276611335</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15742,7 +17172,7 @@
         <v>2984.279476611335</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15775,7 +17205,7 @@
         <v>2953.613076611335</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15808,7 +17238,7 @@
         <v>2944.241976611335</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15841,7 +17271,7 @@
         <v>2913.383976611335</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15874,7 +17304,7 @@
         <v>2943.831776611335</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15907,7 +17337,7 @@
         <v>2941.099376611335</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15940,7 +17370,7 @@
         <v>2919.705076611335</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15973,7 +17403,7 @@
         <v>2925.444576611335</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16006,7 +17436,7 @@
         <v>2915.821276611335</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16039,7 +17469,7 @@
         <v>2915.197276611335</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16072,7 +17502,7 @@
         <v>2915.207276611335</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16105,7 +17535,7 @@
         <v>2912.061676611335</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16138,7 +17568,7 @@
         <v>2904.515276611335</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16171,7 +17601,7 @@
         <v>2910.009176611335</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16204,7 +17634,7 @@
         <v>2906.685176611335</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16237,7 +17667,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16270,7 +17700,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16303,7 +17733,7 @@
         <v>2927.782376611335</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16336,7 +17766,7 @@
         <v>2929.782376611335</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16369,7 +17799,7 @@
         <v>2925.432776611335</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16402,7 +17832,7 @@
         <v>2923.918076611335</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16435,7 +17865,7 @@
         <v>2950.977676611335</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16468,7 +17898,7 @@
         <v>2948.410676611335</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16501,7 +17931,7 @@
         <v>2938.410676611335</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16534,7 +17964,7 @@
         <v>2944.77057037904</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16567,7 +17997,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16600,7 +18030,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16633,7 +18063,7 @@
         <v>2943.10057037904</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16666,7 +18096,7 @@
         <v>2945.86667037904</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16699,7 +18129,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16732,7 +18162,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16765,7 +18195,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16798,7 +18228,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16831,7 +18261,7 @@
         <v>2955.86667037904</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16864,7 +18294,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16897,7 +18327,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16930,7 +18360,7 @@
         <v>2830.54617037904</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16963,7 +18393,7 @@
         <v>2847.60617037904</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16996,7 +18426,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17029,7 +18459,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17062,7 +18492,7 @@
         <v>2811.07427037904</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17095,7 +18525,7 @@
         <v>2800.86857037904</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17260,7 +18690,7 @@
         <v>2909.863270379039</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
